--- a/data/trans_orig/P36B10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>16726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9073</v>
+        <v>9350</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26975</v>
+        <v>29116</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06145456321867226</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03333406113479864</v>
+        <v>0.03435383136183424</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09910687773262317</v>
+        <v>0.1069752488040931</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -764,19 +764,19 @@
         <v>18703</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11815</v>
+        <v>11554</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28941</v>
+        <v>30169</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07226978428857364</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04565504052029343</v>
+        <v>0.04464797477476646</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1118325049850778</v>
+        <v>0.1165762908884523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -785,19 +785,19 @@
         <v>35429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24671</v>
+        <v>25120</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49769</v>
+        <v>49862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0667258258673793</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04646481498146512</v>
+        <v>0.04731035873306474</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09373251638787733</v>
+        <v>0.09390831823544302</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>35112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25085</v>
+        <v>24590</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46747</v>
+        <v>47505</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1290033757992338</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.092163771480252</v>
+        <v>0.09034551927229865</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1717532044238975</v>
+        <v>0.1745367062137114</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -835,19 +835,19 @@
         <v>36658</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26077</v>
+        <v>25886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50240</v>
+        <v>49672</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1416542289216047</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1007663866131371</v>
+        <v>0.1000261429520005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1941368181270601</v>
+        <v>0.1919415244198337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>68</v>
@@ -856,19 +856,19 @@
         <v>71770</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55600</v>
+        <v>56870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89433</v>
+        <v>89609</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1351693125939812</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1047144194806294</v>
+        <v>0.1071073215347862</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1684359744471125</v>
+        <v>0.1687668559530101</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>69536</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56334</v>
+        <v>55977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>84166</v>
+        <v>84929</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2554811664348862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2069770790435276</v>
+        <v>0.2056647875860616</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3092324732212383</v>
+        <v>0.3120375134819663</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -906,19 +906,19 @@
         <v>95732</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>79837</v>
+        <v>80253</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>112419</v>
+        <v>114225</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3699257301003537</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.308502374149049</v>
+        <v>0.3101121223825983</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4344043614214356</v>
+        <v>0.4413862004806603</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>159</v>
@@ -927,19 +927,19 @@
         <v>165268</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142568</v>
+        <v>142608</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>186948</v>
+        <v>185792</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3112606414819786</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2685077276126255</v>
+        <v>0.2685840465461058</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3520918570537297</v>
+        <v>0.3499139362239905</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>92556</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78346</v>
+        <v>75748</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111826</v>
+        <v>109615</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3400599441079338</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2878492807916351</v>
+        <v>0.2783060106531914</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4108573728088231</v>
+        <v>0.4027359450184705</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -977,19 +977,19 @@
         <v>78023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63691</v>
+        <v>62145</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93804</v>
+        <v>92818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3014934416971508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2461127426677271</v>
+        <v>0.2401392281517878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3624723954722779</v>
+        <v>0.3586653385600407</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>166</v>
@@ -998,19 +998,19 @@
         <v>170579</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>150484</v>
+        <v>151963</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>193899</v>
+        <v>194302</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3212629022041862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2834168893647288</v>
+        <v>0.2862013128365198</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3651832384013073</v>
+        <v>0.3659412419038905</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>58246</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45490</v>
+        <v>44358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>72489</v>
+        <v>71229</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2140009504392738</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.167132962518877</v>
+        <v>0.1629764972930775</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2663326104027332</v>
+        <v>0.2617014287672387</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1048,19 +1048,19 @@
         <v>29672</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19508</v>
+        <v>19745</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43343</v>
+        <v>42461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1146568149923171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07538290187853877</v>
+        <v>0.07629672827173963</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1674858622302669</v>
+        <v>0.1640775268928704</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>89</v>
@@ -1069,19 +1069,19 @@
         <v>87918</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>72358</v>
+        <v>72585</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>106365</v>
+        <v>105288</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1655813178524746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1362771468265698</v>
+        <v>0.136703876153717</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2003240053584034</v>
+        <v>0.1982962910423621</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>55094</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42496</v>
+        <v>42115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72510</v>
+        <v>72203</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.111735409151217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0861866759077719</v>
+        <v>0.08541369359349786</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1470561504413659</v>
+        <v>0.1464341988051626</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -1194,19 +1194,19 @@
         <v>88973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72388</v>
+        <v>73416</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107953</v>
+        <v>106681</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1768951542877471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1439221696750144</v>
+        <v>0.1459661048678505</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2146318283308592</v>
+        <v>0.2121030889612139</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -1215,19 +1215,19 @@
         <v>144067</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121399</v>
+        <v>121586</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167042</v>
+        <v>167204</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1446388814336234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.121880816396885</v>
+        <v>0.1220687408411049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.167705547597383</v>
+        <v>0.1678686115136681</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>96362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78927</v>
+        <v>79565</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113731</v>
+        <v>116238</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1954297781632572</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1600709733969159</v>
+        <v>0.161364604221647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2306575287156679</v>
+        <v>0.2357405403330883</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -1265,19 +1265,19 @@
         <v>133488</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>114719</v>
+        <v>115408</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154230</v>
+        <v>155391</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2654003602660704</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2280846816321704</v>
+        <v>0.2294538103320208</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.306639269532487</v>
+        <v>0.3089473063137201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>220</v>
@@ -1286,19 +1286,19 @@
         <v>229849</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>204257</v>
+        <v>202730</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>257042</v>
+        <v>261607</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2307625607574764</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2050680880106363</v>
+        <v>0.2035356226235571</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2580629736239837</v>
+        <v>0.2626464454002901</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>161003</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>140650</v>
+        <v>139648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>183069</v>
+        <v>181241</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3265293870296592</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2852516110136004</v>
+        <v>0.2832189842098685</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3712800224834562</v>
+        <v>0.3675733711774972</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>173</v>
@@ -1336,19 +1336,19 @@
         <v>174363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>153029</v>
+        <v>152532</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>195494</v>
+        <v>195584</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3466677514540542</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.304252573064268</v>
+        <v>0.3032646831285</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.388680971746702</v>
+        <v>0.3888596621504161</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>329</v>
@@ -1357,19 +1357,19 @@
         <v>335366</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>304228</v>
+        <v>307272</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>364285</v>
+        <v>365370</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3366985814343131</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3054368701143449</v>
+        <v>0.3084922737087269</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3657323622644303</v>
+        <v>0.3668213271341285</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>144564</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124395</v>
+        <v>124807</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>166242</v>
+        <v>167442</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2931894767155205</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2522837022703964</v>
+        <v>0.253119293036187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3371533621674582</v>
+        <v>0.3395871419339248</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -1407,19 +1407,19 @@
         <v>83556</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68849</v>
+        <v>66998</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101560</v>
+        <v>101674</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1661260689517285</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1368859914714354</v>
+        <v>0.1332054406736499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2019220134748906</v>
+        <v>0.2021476810239937</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>216</v>
@@ -1428,19 +1428,19 @@
         <v>228120</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>202370</v>
+        <v>200498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>256046</v>
+        <v>254759</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2290267439315926</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2031741396760267</v>
+        <v>0.2012946147256733</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2570630683054587</v>
+        <v>0.2557715733624291</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>36052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25993</v>
+        <v>25387</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49419</v>
+        <v>48709</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07311594894034608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05271708883059316</v>
+        <v>0.05148714556961766</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1002270446408432</v>
+        <v>0.0987870203217612</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1478,19 +1478,19 @@
         <v>22589</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14462</v>
+        <v>14832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33129</v>
+        <v>33532</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04491066504039976</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02875323190900257</v>
+        <v>0.02948916355455634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06586763003576573</v>
+        <v>0.0666683105689844</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -1499,19 +1499,19 @@
         <v>58640</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45052</v>
+        <v>45954</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74605</v>
+        <v>75882</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05887323244299443</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04523110254626231</v>
+        <v>0.04613647903475525</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.074901877168671</v>
+        <v>0.07618342508970539</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>3654</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10941</v>
+        <v>9904</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01146045815754776</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002977028742751128</v>
+        <v>0.00298143296300658</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03431336096328058</v>
+        <v>0.03106105073836371</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1624,19 +1624,19 @@
         <v>9044</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4780</v>
+        <v>4057</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17624</v>
+        <v>16712</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02696523428871794</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01425035831621147</v>
+        <v>0.01209580578916583</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05254538364257895</v>
+        <v>0.04982564257935654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1645,19 +1645,19 @@
         <v>12699</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6573</v>
+        <v>7019</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21552</v>
+        <v>21537</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01940914000716074</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01004587178439258</v>
+        <v>0.01072766755549047</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03294141007274567</v>
+        <v>0.0329177972348021</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>23352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15236</v>
+        <v>15694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34765</v>
+        <v>34178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07324016197452553</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04778350854616294</v>
+        <v>0.04921977997807489</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1090344547888095</v>
+        <v>0.1071929236066155</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -1695,19 +1695,19 @@
         <v>37514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26591</v>
+        <v>26612</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49279</v>
+        <v>48551</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1118443388002639</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07927797082244542</v>
+        <v>0.07934062606635003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1469218010555723</v>
+        <v>0.1447492780997392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>59</v>
@@ -1716,19 +1716,19 @@
         <v>60866</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45626</v>
+        <v>47701</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76023</v>
+        <v>78162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09303098752776348</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06973777176920259</v>
+        <v>0.07290822259592547</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1161976084510596</v>
+        <v>0.1194661797195515</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>86882</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71749</v>
+        <v>72118</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>103092</v>
+        <v>104811</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2724892672953408</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2250261926066136</v>
+        <v>0.2261857199020688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3233294548117155</v>
+        <v>0.3287204623528179</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>161</v>
@@ -1766,19 +1766,19 @@
         <v>162568</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>143921</v>
+        <v>143652</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>179549</v>
+        <v>180075</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4846827669416549</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4290858149442893</v>
+        <v>0.428285499836007</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5353085084541236</v>
+        <v>0.5368783157129902</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>244</v>
@@ -1787,19 +1787,19 @@
         <v>249451</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>225362</v>
+        <v>224967</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>275040</v>
+        <v>274217</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3812724322359635</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3444549960896103</v>
+        <v>0.3438500064893596</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4203843910690849</v>
+        <v>0.4191268905002736</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>76120</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62923</v>
+        <v>60221</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>91135</v>
+        <v>92457</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2387348742616268</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.197347610856303</v>
+        <v>0.1888711664288345</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2858285173412869</v>
+        <v>0.2899743116806005</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -1837,19 +1837,19 @@
         <v>72891</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57867</v>
+        <v>59089</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87247</v>
+        <v>87595</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2173180864723281</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1725260922208914</v>
+        <v>0.1761679414417806</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2601174187015005</v>
+        <v>0.2611560007245797</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>146</v>
@@ -1858,19 +1858,19 @@
         <v>149011</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>128599</v>
+        <v>128154</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>170629</v>
+        <v>171384</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2277553392501165</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1965568805173858</v>
+        <v>0.1958775415777936</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2607977298989348</v>
+        <v>0.2619510719952201</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>128838</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113326</v>
+        <v>111242</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>146930</v>
+        <v>144363</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4040752383109592</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3554257513481667</v>
+        <v>0.3488881566505457</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.460818639049887</v>
+        <v>0.4527664506174989</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -1908,19 +1908,19 @@
         <v>53394</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40935</v>
+        <v>42055</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66660</v>
+        <v>69000</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1591895734970351</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1220437044053043</v>
+        <v>0.1253835119233758</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1987392447019122</v>
+        <v>0.2057165064454015</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>183</v>
@@ -1929,19 +1929,19 @@
         <v>182232</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>162077</v>
+        <v>159243</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>206551</v>
+        <v>206482</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2785321009789957</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2477270147268293</v>
+        <v>0.2433946199182527</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.315703267965177</v>
+        <v>0.3155976210020822</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>12110</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6853</v>
+        <v>6985</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21065</v>
+        <v>21435</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03376376962119935</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01910797036537388</v>
+        <v>0.01947372638780399</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.058732006963464</v>
+        <v>0.05976142086059179</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -2054,19 +2054,19 @@
         <v>17502</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10070</v>
+        <v>10477</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27343</v>
+        <v>28078</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04711765597266489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02710962453286821</v>
+        <v>0.02820484351804687</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07360968012867779</v>
+        <v>0.07558858347977462</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -2075,19 +2075,19 @@
         <v>29612</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19953</v>
+        <v>20543</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43086</v>
+        <v>43274</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04055762907070706</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02732818752399843</v>
+        <v>0.02813562920038442</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05901174817825468</v>
+        <v>0.0592690633374194</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>32293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23374</v>
+        <v>22539</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44960</v>
+        <v>45411</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09003544430126456</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06516867922768967</v>
+        <v>0.06283983415125312</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1253507279410649</v>
+        <v>0.1266089779680155</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -2125,19 +2125,19 @@
         <v>51570</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>39855</v>
+        <v>38971</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>65224</v>
+        <v>65156</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1388333529228186</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1072944271518152</v>
+        <v>0.104913243330358</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1755904433865861</v>
+        <v>0.1754069306309757</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>85</v>
@@ -2146,19 +2146,19 @@
         <v>83864</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>66656</v>
+        <v>68862</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>100227</v>
+        <v>102206</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1148616352601516</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09129431035669308</v>
+        <v>0.09431563839797635</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1372739890914689</v>
+        <v>0.1399832893011893</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>83270</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>67961</v>
+        <v>67522</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>100185</v>
+        <v>100705</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2321623844168155</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1894811896206995</v>
+        <v>0.1882566564300486</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2793222891551109</v>
+        <v>0.28077289624126</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>151</v>
@@ -2196,19 +2196,19 @@
         <v>145754</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>127626</v>
+        <v>128144</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>163107</v>
+        <v>164151</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3923855789358759</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.343581755379623</v>
+        <v>0.3449780272563332</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4391031470067859</v>
+        <v>0.4419111114587747</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>234</v>
@@ -2217,19 +2217,19 @@
         <v>229024</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>206092</v>
+        <v>205707</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>254967</v>
+        <v>253557</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3136767717243102</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2822691704699244</v>
+        <v>0.2817420438966977</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3492097229275451</v>
+        <v>0.3472773318087971</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>128020</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>109992</v>
+        <v>110911</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146671</v>
+        <v>146466</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3569275385903163</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3066645899000304</v>
+        <v>0.3092273275081234</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4089299361058223</v>
+        <v>0.408357358309468</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>128</v>
@@ -2267,19 +2267,19 @@
         <v>121237</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>105070</v>
+        <v>104690</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>140202</v>
+        <v>139642</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.326383516928301</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2828590560158353</v>
+        <v>0.2818379748524758</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3774395080058828</v>
+        <v>0.3759315241294099</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>258</v>
@@ -2288,19 +2288,19 @@
         <v>249257</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>225140</v>
+        <v>222392</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>273696</v>
+        <v>275237</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3413881079906484</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3083575231725919</v>
+        <v>0.3045942366949513</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3748610128594965</v>
+        <v>0.3769707702722632</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>102978</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>87370</v>
+        <v>85534</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>120718</v>
+        <v>120655</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2871108630704043</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2435941613478999</v>
+        <v>0.2384742043942852</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3365697156608151</v>
+        <v>0.3363937945578815</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -2338,19 +2338,19 @@
         <v>35392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25677</v>
+        <v>25532</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47747</v>
+        <v>47337</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09527989524033964</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06912497604732865</v>
+        <v>0.06873405163238601</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1285394042913524</v>
+        <v>0.1274369123504877</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>141</v>
@@ -2359,19 +2359,19 @@
         <v>138371</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>118695</v>
+        <v>118949</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>160874</v>
+        <v>162671</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1895158559541827</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1625681810106407</v>
+        <v>0.1629159675277864</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.220337037287988</v>
+        <v>0.2227988626410006</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>9204</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4157</v>
+        <v>3714</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17505</v>
+        <v>17393</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04597725528289206</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02076419857009128</v>
+        <v>0.01855509205266801</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08744644646930649</v>
+        <v>0.08688874896634896</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -2484,19 +2484,19 @@
         <v>16308</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9646</v>
+        <v>9507</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25298</v>
+        <v>26008</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07915010230703812</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04681459405222383</v>
+        <v>0.04614016205476688</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1227798856348328</v>
+        <v>0.1262260264895688</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -2505,19 +2505,19 @@
         <v>25512</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15746</v>
+        <v>16357</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>36271</v>
+        <v>38060</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06280304858387062</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03876229481669104</v>
+        <v>0.04026628215959031</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08928716875204187</v>
+        <v>0.09369071198362329</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>29740</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21295</v>
+        <v>20961</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41076</v>
+        <v>41661</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1485663999143617</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1063808892901728</v>
+        <v>0.1047100079909242</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2051928408377906</v>
+        <v>0.2081160406356003</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -2555,19 +2555,19 @@
         <v>47644</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>35985</v>
+        <v>36930</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61022</v>
+        <v>60077</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2312311564671242</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1746487248765265</v>
+        <v>0.1792321294530586</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.296161412548392</v>
+        <v>0.2915758302365881</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>75</v>
@@ -2576,19 +2576,19 @@
         <v>77384</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>62897</v>
+        <v>61976</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>95171</v>
+        <v>93824</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1904952734301042</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1548330893831744</v>
+        <v>0.1525651861922995</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2342824392723247</v>
+        <v>0.2309665715854021</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>85807</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>73033</v>
+        <v>71930</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>99621</v>
+        <v>100721</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4286467999833867</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3648337170464888</v>
+        <v>0.3593247316949159</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4976566437089057</v>
+        <v>0.503152017301874</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>80</v>
@@ -2626,19 +2626,19 @@
         <v>84651</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>70659</v>
+        <v>70641</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99462</v>
+        <v>97750</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4108395796963615</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3429304139518703</v>
+        <v>0.3428433490732741</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4827215935432506</v>
+        <v>0.4744121214475316</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>166</v>
@@ -2647,19 +2647,19 @@
         <v>170458</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>153689</v>
+        <v>152374</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>192942</v>
+        <v>191240</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4196146958773874</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3783342032652032</v>
+        <v>0.3750975657253369</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4749628863825917</v>
+        <v>0.4707728880352611</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>52521</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>41295</v>
+        <v>42030</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>66289</v>
+        <v>65258</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.262369826740616</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2062892394372995</v>
+        <v>0.2099579490330554</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3311431276358046</v>
+        <v>0.3259931491132625</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>52</v>
@@ -2697,19 +2697,19 @@
         <v>52488</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>40666</v>
+        <v>40827</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>64699</v>
+        <v>65678</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2547426307182221</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1973655620775879</v>
+        <v>0.1981470875688136</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3140076331126454</v>
+        <v>0.3187595818921157</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>108</v>
@@ -2718,19 +2718,19 @@
         <v>105010</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>88755</v>
+        <v>87676</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>122521</v>
+        <v>122172</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2585011921417998</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2184863782721599</v>
+        <v>0.2158308484385817</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3016091782584374</v>
+        <v>0.3007497459554958</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>22909</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14609</v>
+        <v>15431</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>32732</v>
+        <v>33534</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1144397180787435</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07297773711944129</v>
+        <v>0.07708656595222582</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1635129148118499</v>
+        <v>0.1675183451853635</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2768,19 +2768,19 @@
         <v>4953</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1972</v>
+        <v>1930</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11942</v>
+        <v>11865</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02403653081125409</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00957147259604392</v>
+        <v>0.009365642591675208</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05795979602615135</v>
+        <v>0.05758634951696</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>28</v>
@@ -2789,19 +2789,19 @@
         <v>27861</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19069</v>
+        <v>18458</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>38830</v>
+        <v>39716</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06858578996683795</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04694135891695816</v>
+        <v>0.0454375163831687</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09558631355130193</v>
+        <v>0.09776944375406763</v>
       </c>
     </row>
     <row r="33">
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5994</v>
+        <v>6016</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003812952065286496</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02213203283470011</v>
+        <v>0.02221567139396435</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -2914,19 +2914,19 @@
         <v>9558</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4548</v>
+        <v>4942</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16639</v>
+        <v>18001</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03436367494513549</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01635194982296547</v>
+        <v>0.01776673093972408</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05982239397576041</v>
+        <v>0.06471998658043379</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>10</v>
@@ -2935,19 +2935,19 @@
         <v>10591</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5208</v>
+        <v>5470</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>19173</v>
+        <v>19130</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0192923633154134</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009486612934382311</v>
+        <v>0.009964230597309802</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03492709394658634</v>
+        <v>0.03484838375373076</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>18969</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12301</v>
+        <v>11976</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>28787</v>
+        <v>28735</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07004636414730905</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04542425366114845</v>
+        <v>0.04422221076676755</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1062976332877514</v>
+        <v>0.1061060532671066</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>29</v>
@@ -2985,19 +2985,19 @@
         <v>29935</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>21280</v>
+        <v>20761</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>41749</v>
+        <v>42048</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.107624435166817</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07650874135297504</v>
+        <v>0.07464024916555868</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1500990302351559</v>
+        <v>0.1511736177763071</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>49</v>
@@ -3006,19 +3006,19 @@
         <v>48904</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>35465</v>
+        <v>37680</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>62466</v>
+        <v>63212</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08908638547790462</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06460480377674292</v>
+        <v>0.06863998013383357</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1137913676461454</v>
+        <v>0.115149294542843</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>88643</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>72051</v>
+        <v>74340</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>103409</v>
+        <v>105694</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3273237833530108</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2660559604556672</v>
+        <v>0.2745070179296525</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3818481414128075</v>
+        <v>0.3902878277790885</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>123</v>
@@ -3056,19 +3056,19 @@
         <v>127662</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>111277</v>
+        <v>110527</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>144117</v>
+        <v>143169</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.458979419800206</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.400071222401578</v>
+        <v>0.3973715464274435</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5181389001835696</v>
+        <v>0.514728203887752</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>209</v>
@@ -3077,19 +3077,19 @@
         <v>216305</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>193191</v>
+        <v>196005</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>237755</v>
+        <v>242445</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3940309361748364</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3519256824632504</v>
+        <v>0.3570507988482283</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4331056012688496</v>
+        <v>0.4416489210311235</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>72495</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>57353</v>
+        <v>58047</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>86622</v>
+        <v>88571</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2676956032634107</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2117811926670372</v>
+        <v>0.2143467695401431</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3198604047287308</v>
+        <v>0.3270570681686879</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>70</v>
@@ -3127,19 +3127,19 @@
         <v>71319</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>59284</v>
+        <v>57082</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>87306</v>
+        <v>86890</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2564110965173703</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2131420106843911</v>
+        <v>0.2052251368772193</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3138889635380874</v>
+        <v>0.3123911915219536</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>141</v>
@@ -3148,19 +3148,19 @@
         <v>143814</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>125288</v>
+        <v>125134</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>164510</v>
+        <v>166121</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.261977980103927</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2282297179609775</v>
+        <v>0.2279493377440022</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2996776802512178</v>
+        <v>0.3026133589263567</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>89671</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>76097</v>
+        <v>73624</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>107156</v>
+        <v>106087</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.331121297170983</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2809958588074897</v>
+        <v>0.2718635714484053</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3956844458448297</v>
+        <v>0.3917377715079703</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>39</v>
@@ -3198,19 +3198,19 @@
         <v>39669</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>29189</v>
+        <v>28380</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>52309</v>
+        <v>51602</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1426213735704713</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1049416140613084</v>
+        <v>0.1020351627409508</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.188065951395741</v>
+        <v>0.185520943588301</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>127</v>
@@ -3219,19 +3219,19 @@
         <v>129341</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>111510</v>
+        <v>110576</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>147999</v>
+        <v>148609</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2356123349279185</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2031315899066535</v>
+        <v>0.2014293449256772</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2696020172787501</v>
+        <v>0.2707119550247893</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>15010</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>8457</v>
+        <v>7928</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>26344</v>
+        <v>24967</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02451876943492823</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01381458057663825</v>
+        <v>0.01295117729367205</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04303409804950262</v>
+        <v>0.040784461490395</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>34</v>
@@ -3344,19 +3344,19 @@
         <v>35360</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>24879</v>
+        <v>24446</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>49944</v>
+        <v>48460</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.05558943488987558</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03911246693001783</v>
+        <v>0.03843090302824728</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0785162332501379</v>
+        <v>0.07618447016341072</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>47</v>
@@ -3365,19 +3365,19 @@
         <v>50370</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>37524</v>
+        <v>38519</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>67985</v>
+        <v>67332</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04035185010889922</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03006106077560973</v>
+        <v>0.03085818859499644</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05446355617019048</v>
+        <v>0.05394029670850424</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>34766</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>25061</v>
+        <v>23973</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>47408</v>
+        <v>46880</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.05679087665051068</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04093786757228736</v>
+        <v>0.03916062428736274</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07744297059871789</v>
+        <v>0.07658023076434846</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>81</v>
@@ -3415,19 +3415,19 @@
         <v>86031</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>70021</v>
+        <v>69443</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>104459</v>
+        <v>104737</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1352491629155998</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1100801208054928</v>
+        <v>0.1091713412368858</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1642200478905076</v>
+        <v>0.1646565260099969</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>117</v>
@@ -3436,19 +3436,19 @@
         <v>120797</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>102284</v>
+        <v>102536</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>146665</v>
+        <v>143794</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09677187988257589</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08194130786134506</v>
+        <v>0.08214344284525622</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1174955753324601</v>
+        <v>0.1151951094474265</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>176433</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>153651</v>
+        <v>154233</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>199720</v>
+        <v>200480</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2882090853260892</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2509944250339609</v>
+        <v>0.2519453095627748</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3262499898370615</v>
+        <v>0.3274919621747044</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>268</v>
@@ -3486,19 +3486,19 @@
         <v>278356</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>253013</v>
+        <v>251356</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>304731</v>
+        <v>300797</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4376020044189128</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.397761376642577</v>
+        <v>0.3951552752441421</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4790665471831562</v>
+        <v>0.472881995163384</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>438</v>
@@ -3507,19 +3507,19 @@
         <v>454788</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>418052</v>
+        <v>418922</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>487561</v>
+        <v>488435</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3643371664431954</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3349074193912565</v>
+        <v>0.3356042320538157</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3905924668366391</v>
+        <v>0.3912924934825625</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>238501</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>215635</v>
+        <v>215292</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>264810</v>
+        <v>262330</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3896006785659324</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3522474296333522</v>
+        <v>0.3516865004128058</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4325768669814023</v>
+        <v>0.4285260565677603</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>159</v>
@@ -3557,19 +3557,19 @@
         <v>163069</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>142858</v>
+        <v>140602</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>186765</v>
+        <v>184720</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2563604570794474</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.224586200606887</v>
+        <v>0.2210402808837656</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2936125405396585</v>
+        <v>0.2903984608332577</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>387</v>
@@ -3578,19 +3578,19 @@
         <v>401570</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>370370</v>
+        <v>370256</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>440022</v>
+        <v>435018</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3217037363883593</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2967087368028474</v>
+        <v>0.2966171483498164</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3525078452811016</v>
+        <v>0.3484992938071867</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>147460</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>127751</v>
+        <v>128515</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>171407</v>
+        <v>169967</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2408805900225394</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2086861633202865</v>
+        <v>0.2099335591241238</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2799996885337108</v>
+        <v>0.2776479936470883</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>76</v>
@@ -3628,19 +3628,19 @@
         <v>73277</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>58785</v>
+        <v>58831</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>90174</v>
+        <v>89880</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1151989406961644</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09241633878783383</v>
+        <v>0.09248868164260225</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1417624733005473</v>
+        <v>0.1412996302775261</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>224</v>
@@ -3649,19 +3649,19 @@
         <v>220737</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>194970</v>
+        <v>194839</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>248475</v>
+        <v>248022</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1768353671769703</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1561929033923182</v>
+        <v>0.1560880211226222</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1990572429149984</v>
+        <v>0.1986942946189926</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>58872</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>44520</v>
+        <v>44867</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>74280</v>
+        <v>75792</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.07923275730112983</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05991668128529311</v>
+        <v>0.06038462291112622</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09997016251370625</v>
+        <v>0.102004880547002</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>77</v>
@@ -3774,19 +3774,19 @@
         <v>80910</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>64699</v>
+        <v>64654</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>99449</v>
+        <v>99662</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1036741031051911</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08290186729753875</v>
+        <v>0.08284456450330205</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1274290046673612</v>
+        <v>0.1277018274955672</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>133</v>
@@ -3795,19 +3795,19 @@
         <v>139782</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>116822</v>
+        <v>115742</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>163298</v>
+        <v>163156</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.09175343796694216</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07668241675236515</v>
+        <v>0.0759733718741569</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1071898495067762</v>
+        <v>0.1070962873662694</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>111356</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>93535</v>
+        <v>93168</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>130935</v>
+        <v>132142</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.149868393877487</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1258838558717349</v>
+        <v>0.1253901790203219</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1762179419257303</v>
+        <v>0.1778428060069773</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>145</v>
@@ -3845,19 +3845,19 @@
         <v>151702</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>129407</v>
+        <v>127730</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>175456</v>
+        <v>173335</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1943836177286399</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1658163748534568</v>
+        <v>0.163667422566277</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2248216710957528</v>
+        <v>0.222103188446919</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>256</v>
@@ -3866,19 +3866,19 @@
         <v>263058</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>234814</v>
+        <v>233895</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>292909</v>
+        <v>295118</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1726724124072205</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1541332481551968</v>
+        <v>0.1535295485146065</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1922667417989708</v>
+        <v>0.1937167163380287</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>272011</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>247132</v>
+        <v>247187</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>297062</v>
+        <v>301529</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3660852888795323</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.332602420959435</v>
+        <v>0.3326767830535405</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.399800288915329</v>
+        <v>0.4058123082568361</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>301</v>
@@ -3916,19 +3916,19 @@
         <v>318940</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>289859</v>
+        <v>290117</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>347163</v>
+        <v>344649</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4086749218950799</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3714119371921908</v>
+        <v>0.3717428124329384</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4448388033801397</v>
+        <v>0.4416173631744839</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>573</v>
@@ -3937,19 +3937,19 @@
         <v>590951</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>552976</v>
+        <v>554536</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>629842</v>
+        <v>628015</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3879028761325715</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3629761326672857</v>
+        <v>0.3640001492451783</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4134312095564721</v>
+        <v>0.4122319255393532</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>196163</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>172326</v>
+        <v>171398</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>221961</v>
+        <v>220413</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2640060525416987</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2319240517975686</v>
+        <v>0.2306754942081061</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2987253562423681</v>
+        <v>0.2966425035702634</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>157</v>
@@ -3987,19 +3987,19 @@
         <v>166103</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>146571</v>
+        <v>143082</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>192317</v>
+        <v>190383</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2128361912606066</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1878090877660982</v>
+        <v>0.1833383998829457</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2464264634702578</v>
+        <v>0.2439482425068947</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>351</v>
@@ -4008,19 +4008,19 @@
         <v>362266</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>329020</v>
+        <v>328674</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>394500</v>
+        <v>398354</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2377930322787961</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.21597050151661</v>
+        <v>0.2157429997157388</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2589513969122226</v>
+        <v>0.2614815456482127</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>104624</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>85985</v>
+        <v>86328</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>125261</v>
+        <v>124639</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1408075074001522</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1157223846801667</v>
+        <v>0.1161839082426159</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1685824477726381</v>
+        <v>0.1677453819350418</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>62</v>
@@ -4058,19 +4058,19 @@
         <v>62770</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>48678</v>
+        <v>48057</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>79416</v>
+        <v>77932</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.08043116601048249</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.06237380886963449</v>
+        <v>0.06157778308508445</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1017595055796341</v>
+        <v>0.09985815958978214</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>164</v>
@@ -4079,19 +4079,19 @@
         <v>167394</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>146063</v>
+        <v>144168</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>193208</v>
+        <v>195346</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1098782412144698</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.09587612534766893</v>
+        <v>0.09463254393783599</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1268225159001848</v>
+        <v>0.1282261323049122</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>171703</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>145338</v>
+        <v>146817</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>199881</v>
+        <v>200310</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.05252522388182371</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.04445995506010206</v>
+        <v>0.04491242693082637</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.06114531145882873</v>
+        <v>0.06127658054476685</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>266</v>
@@ -4204,19 +4204,19 @@
         <v>276358</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>244660</v>
+        <v>241997</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>311503</v>
+        <v>310375</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.08202169364175385</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.07261395411347268</v>
+        <v>0.07182341361150314</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.09245258619613132</v>
+        <v>0.09211782400021994</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>426</v>
@@ -4225,19 +4225,19 @@
         <v>448061</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>404132</v>
+        <v>412408</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>491638</v>
+        <v>498864</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.06749646209982216</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.06087903162292786</v>
+        <v>0.06212562572944566</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.07406106462290378</v>
+        <v>0.07514951185978144</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>381950</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>344743</v>
+        <v>342906</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>417744</v>
+        <v>415069</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1168415743340402</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1054596169419573</v>
+        <v>0.1048976858469322</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1277912665500984</v>
+        <v>0.1269730640640118</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>554</v>
@@ -4275,19 +4275,19 @@
         <v>574543</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>533293</v>
+        <v>530407</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>622359</v>
+        <v>620364</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1705212929911171</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1582787571303902</v>
+        <v>0.1574222335496422</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1847130301520613</v>
+        <v>0.1841208504710938</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>929</v>
@@ -4296,19 +4296,19 @@
         <v>956492</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>901617</v>
+        <v>897418</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1016632</v>
+        <v>1017060</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1440872705828152</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1358207426043873</v>
+        <v>0.1351881704255587</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1531468091662268</v>
+        <v>0.1532112548805254</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>1023585</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>974965</v>
+        <v>971892</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1082320</v>
+        <v>1078205</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3131229261679206</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2982497298182122</v>
+        <v>0.2973095570897372</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3310905054508715</v>
+        <v>0.3298317961857907</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1347</v>
@@ -4346,19 +4346,19 @@
         <v>1388027</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1334175</v>
+        <v>1327323</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1440755</v>
+        <v>1451697</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.4119592286257509</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3959762224043706</v>
+        <v>0.3939426351943077</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.4276088828932292</v>
+        <v>0.4308562808295784</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2352</v>
@@ -4367,19 +4367,19 @@
         <v>2411611</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2334382</v>
+        <v>2334012</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2491357</v>
+        <v>2500272</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3632883134405508</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3516544395277404</v>
+        <v>0.3515986046692191</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3753012376450899</v>
+        <v>0.3766443100793949</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>1000941</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>950575</v>
+        <v>951220</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>1059054</v>
+        <v>1058873</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3061959938545494</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2907887255102601</v>
+        <v>0.2909859405000789</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3239732046909603</v>
+        <v>0.3239178519345594</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>797</v>
@@ -4417,19 +4417,19 @@
         <v>808686</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>760797</v>
+        <v>760570</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>858078</v>
+        <v>860952</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2400139924432808</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2258007211727358</v>
+        <v>0.2257333151736725</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2546732287516156</v>
+        <v>0.2555261496371102</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1773</v>
@@ -4438,19 +4438,19 @@
         <v>1809627</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1737688</v>
+        <v>1736915</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1881095</v>
+        <v>1882730</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2726046347211926</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2617675844603933</v>
+        <v>0.2616510986068691</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2833705649800397</v>
+        <v>0.2836168580467683</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>690777</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>643319</v>
+        <v>645960</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>739595</v>
+        <v>737508</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2113142817616661</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1967964190669245</v>
+        <v>0.197604567900685</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2262481744160535</v>
+        <v>0.2256098314813457</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>323</v>
@@ -4488,19 +4488,19 @@
         <v>321716</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>290345</v>
+        <v>288502</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>354848</v>
+        <v>351789</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.09548379229809743</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.08617281083362027</v>
+        <v>0.08562594140090872</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.105317061921012</v>
+        <v>0.1044091780632276</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1014</v>
@@ -4509,19 +4509,19 @@
         <v>1012493</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>951402</v>
+        <v>953394</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1068867</v>
+        <v>1072314</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1525233191556192</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1433203884773547</v>
+        <v>0.1436205394687007</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1610155327162712</v>
+        <v>0.1615348344736267</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>50642</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38406</v>
+        <v>39602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64541</v>
+        <v>66232</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1744504387816084</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1322987777491964</v>
+        <v>0.136418826169514</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2223303745277012</v>
+        <v>0.228152481111758</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -4878,19 +4878,19 @@
         <v>88711</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72612</v>
+        <v>72521</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106279</v>
+        <v>105569</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3099288255205204</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2536834060864204</v>
+        <v>0.2533655882561059</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3713044708876773</v>
+        <v>0.3688235224010361</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -4899,19 +4899,19 @@
         <v>139353</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>116917</v>
+        <v>120484</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>159878</v>
+        <v>163533</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2417121246178255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2027955299874067</v>
+        <v>0.2089824402050678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2773125216186908</v>
+        <v>0.2836520830424443</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>57537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44774</v>
+        <v>45802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72392</v>
+        <v>72636</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.198202615172272</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1542357950470269</v>
+        <v>0.1577781114788416</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.249373608986812</v>
+        <v>0.2502145691106459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -4949,19 +4949,19 @@
         <v>59295</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46145</v>
+        <v>45485</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74884</v>
+        <v>75616</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2071569689671836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1612152757671255</v>
+        <v>0.1589085156042978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2616224655264538</v>
+        <v>0.2641769103891581</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -4970,19 +4970,19 @@
         <v>116832</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99333</v>
+        <v>97375</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142143</v>
+        <v>137567</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2026482315271551</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1722954158081074</v>
+        <v>0.1688991710348645</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2465507935199472</v>
+        <v>0.2386137435306236</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>87066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72888</v>
+        <v>70404</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>104796</v>
+        <v>103129</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2999216019313121</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.251080847937367</v>
+        <v>0.2425267019883247</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3609993553953186</v>
+        <v>0.3552552566673139</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>68</v>
@@ -5020,19 +5020,19 @@
         <v>77527</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62818</v>
+        <v>61979</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94370</v>
+        <v>94314</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2708532448017978</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2194672081392231</v>
+        <v>0.2165331937603122</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3296981645748608</v>
+        <v>0.3295030201502808</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>151</v>
@@ -5041,19 +5041,19 @@
         <v>164592</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>143392</v>
+        <v>142617</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>188232</v>
+        <v>186394</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2854898777863509</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2487179297294849</v>
+        <v>0.247372590729074</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3264932042903681</v>
+        <v>0.3233049608476715</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>50519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38396</v>
+        <v>38732</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64073</v>
+        <v>65957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1740272625594881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1322660734816835</v>
+        <v>0.1334219723470749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2207156374335275</v>
+        <v>0.2272064169461626</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -5091,19 +5091,19 @@
         <v>35152</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25212</v>
+        <v>25092</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49152</v>
+        <v>48164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.122809341473911</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08808170945760579</v>
+        <v>0.08766485337221568</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1717229162709313</v>
+        <v>0.1682684155293729</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -5112,19 +5112,19 @@
         <v>85671</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69579</v>
+        <v>68522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105564</v>
+        <v>103790</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1485988248568654</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1206859361963751</v>
+        <v>0.1188540281122781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1831037595265678</v>
+        <v>0.1800258848143824</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>44531</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33200</v>
+        <v>34036</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>59660</v>
+        <v>60957</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1533980815553194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.114367126870962</v>
+        <v>0.1172450386433727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2055140334613574</v>
+        <v>0.2099818782485417</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -5162,19 +5162,19 @@
         <v>25547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16031</v>
+        <v>16432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36563</v>
+        <v>37879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08925161923658712</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05600746588588947</v>
+        <v>0.05740826229869671</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1277378832327149</v>
+        <v>0.1323378841512312</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>67</v>
@@ -5183,19 +5183,19 @@
         <v>70077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>53473</v>
+        <v>54802</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>87553</v>
+        <v>87307</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1215509412118031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09275078398448128</v>
+        <v>0.09505553468520229</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1518634002345884</v>
+        <v>0.1514368090184252</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>41870</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30584</v>
+        <v>29554</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57951</v>
+        <v>55660</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08282536569502345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0604997116070119</v>
+        <v>0.05846151315005983</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1146343235113466</v>
+        <v>0.1101028417781051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -5308,19 +5308,19 @@
         <v>53711</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41364</v>
+        <v>40726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69778</v>
+        <v>70549</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1029773781847381</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07930483994490875</v>
+        <v>0.0780820217205881</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1337830595240016</v>
+        <v>0.1352599640670236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -5329,19 +5329,19 @@
         <v>95581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77637</v>
+        <v>77950</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117103</v>
+        <v>118380</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09305883862492853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.075588569390014</v>
+        <v>0.0758931294369955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1140122035395614</v>
+        <v>0.1152559161643136</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>64271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50190</v>
+        <v>49217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82892</v>
+        <v>79595</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1271364371990018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09928279969810537</v>
+        <v>0.0973572927011256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1639720189775959</v>
+        <v>0.1574487455584984</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -5379,19 +5379,19 @@
         <v>88364</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69226</v>
+        <v>70740</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105576</v>
+        <v>105149</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1694153899023779</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1327247573510579</v>
+        <v>0.1356261326674714</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2024164179754857</v>
+        <v>0.2015972779323258</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>145</v>
@@ -5400,19 +5400,19 @@
         <v>152634</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>129630</v>
+        <v>127249</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>176996</v>
+        <v>175819</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1486062788942449</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1262089767688991</v>
+        <v>0.1238911477290961</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1723251884934975</v>
+        <v>0.1711792691479627</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>122410</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>103666</v>
+        <v>104284</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>143603</v>
+        <v>144421</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2421430379062706</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2050661731191203</v>
+        <v>0.2062873048392451</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2840663297544278</v>
+        <v>0.2856844810424965</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>119</v>
@@ -5450,19 +5450,19 @@
         <v>130760</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>109489</v>
+        <v>109163</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>150542</v>
+        <v>150364</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.250700147012262</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.209917522397051</v>
+        <v>0.2092942022738881</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2886265840602584</v>
+        <v>0.2882863790057308</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>237</v>
@@ -5471,19 +5471,19 @@
         <v>253170</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>226364</v>
+        <v>224143</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>283185</v>
+        <v>280776</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2464884572255124</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2203899264729485</v>
+        <v>0.2182277619646395</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2757115264585184</v>
+        <v>0.2733658781466848</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>118636</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100091</v>
+        <v>99818</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138541</v>
+        <v>139756</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2346776794693521</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1979925912165183</v>
+        <v>0.1974537717337934</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2740516785085076</v>
+        <v>0.276456443830922</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -5521,19 +5521,19 @@
         <v>117618</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99205</v>
+        <v>98064</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>137871</v>
+        <v>137109</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2255035034034396</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1902007065702861</v>
+        <v>0.1880136981717806</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2643345716633745</v>
+        <v>0.2628723097640938</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>219</v>
@@ -5542,19 +5542,19 @@
         <v>236254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>209939</v>
+        <v>205813</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>264671</v>
+        <v>264577</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2300189049438492</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2043986220396127</v>
+        <v>0.2003814919387628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2576864365545249</v>
+        <v>0.2575943289490222</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>158340</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>137945</v>
+        <v>136404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>180014</v>
+        <v>180514</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3132174797303521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2728727480853276</v>
+        <v>0.2698249084631014</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3560921675844019</v>
+        <v>0.35708178929836</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>118</v>
@@ -5592,19 +5592,19 @@
         <v>131127</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113407</v>
+        <v>111167</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153517</v>
+        <v>152461</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2514035814971824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2174304911089199</v>
+        <v>0.2131357453751356</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2943317971557953</v>
+        <v>0.2923067665779095</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>264</v>
@@ -5613,19 +5613,19 @@
         <v>289467</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>261514</v>
+        <v>260706</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>323818</v>
+        <v>322648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.281827520311465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2546123208900472</v>
+        <v>0.2538261476404402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3152725679911367</v>
+        <v>0.3141329645841582</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>7076</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3010</v>
+        <v>2966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14229</v>
+        <v>13204</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02198749810499257</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009351886681527978</v>
+        <v>0.009216940436980525</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04421267748002758</v>
+        <v>0.04102533235012899</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -5738,19 +5738,19 @@
         <v>27613</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18193</v>
+        <v>18443</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39156</v>
+        <v>38655</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08198662643826599</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0540168536167089</v>
+        <v>0.05475920360007824</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1162587974334274</v>
+        <v>0.1147719396931812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -5759,19 +5759,19 @@
         <v>34689</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25523</v>
+        <v>24905</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48817</v>
+        <v>49428</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05266829881941994</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03875163641480875</v>
+        <v>0.0378131611282851</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07411851694872347</v>
+        <v>0.07504622773770667</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>87050</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70638</v>
+        <v>71568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>103757</v>
+        <v>103861</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2704749593749255</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2194810421819718</v>
+        <v>0.2223705718186609</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3223854147926486</v>
+        <v>0.3227110491194184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>125</v>
@@ -5809,19 +5809,19 @@
         <v>135693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117312</v>
+        <v>117455</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>154932</v>
+        <v>153665</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4028937845108219</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3483154832914893</v>
+        <v>0.3487425075405318</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4600147176454207</v>
+        <v>0.4562543597408439</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>207</v>
@@ -5830,19 +5830,19 @@
         <v>222743</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>199312</v>
+        <v>198159</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>249011</v>
+        <v>247651</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3381878695069883</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3026134510897381</v>
+        <v>0.3008628635660584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3780709195557863</v>
+        <v>0.3760045635348117</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>98782</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82643</v>
+        <v>82155</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>116450</v>
+        <v>114285</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3069279945136247</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.256783824632473</v>
+        <v>0.2552680257897276</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3618242377845318</v>
+        <v>0.3550996579999014</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>111</v>
@@ -5880,19 +5880,19 @@
         <v>119588</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>101927</v>
+        <v>102056</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>136852</v>
+        <v>137470</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3550745546286206</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3026376161087757</v>
+        <v>0.3030187757282317</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4063341587629979</v>
+        <v>0.4081696054830353</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>209</v>
@@ -5901,19 +5901,19 @@
         <v>218370</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>194537</v>
+        <v>194488</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>243148</v>
+        <v>241619</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3315479357862415</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2953624345462407</v>
+        <v>0.2952886286384244</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3691678235966364</v>
+        <v>0.366847291982366</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>79704</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65073</v>
+        <v>65766</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97007</v>
+        <v>97897</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2476499733079161</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2021910287356464</v>
+        <v>0.204343922823548</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3014143730259258</v>
+        <v>0.3041777142950368</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -5951,19 +5951,19 @@
         <v>44050</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31478</v>
+        <v>32894</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56353</v>
+        <v>59011</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1307896524364011</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09346430660046116</v>
+        <v>0.09766768151118181</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1673204856622248</v>
+        <v>0.1752123057296117</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>121</v>
@@ -5972,19 +5972,19 @@
         <v>123753</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105329</v>
+        <v>104420</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>145814</v>
+        <v>145845</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1878929682366496</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1599191386509776</v>
+        <v>0.1585401032480371</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2213877379924756</v>
+        <v>0.2214341202772462</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>49229</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37580</v>
+        <v>37832</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64777</v>
+        <v>63195</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1529595746985411</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1167650217542249</v>
+        <v>0.1175492876777678</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2012693003328768</v>
+        <v>0.1963564047179691</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -6022,19 +6022,19 @@
         <v>9853</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4932</v>
+        <v>5001</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16988</v>
+        <v>16743</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02925538198589046</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01464316706682636</v>
+        <v>0.01484861403332318</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05044091994282581</v>
+        <v>0.04971263696562353</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -6043,19 +6043,19 @@
         <v>59082</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46244</v>
+        <v>45674</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74481</v>
+        <v>74874</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08970292765070076</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07021179281098716</v>
+        <v>0.06934660756815708</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1130837696063168</v>
+        <v>0.1136808568738157</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>43280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32518</v>
+        <v>31940</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60323</v>
+        <v>57665</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1163352810158394</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08740632382533625</v>
+        <v>0.08585238201804862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1621437748694463</v>
+        <v>0.1549993663753526</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -6168,19 +6168,19 @@
         <v>76077</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60570</v>
+        <v>60185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92740</v>
+        <v>94075</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1966347854888456</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1565531016438313</v>
+        <v>0.155558058778366</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2397043294859406</v>
+        <v>0.2431534253623358</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>109</v>
@@ -6189,19 +6189,19 @@
         <v>119357</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>98279</v>
+        <v>100628</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>141454</v>
+        <v>142921</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1572713728710454</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1294981191387284</v>
+        <v>0.1325926078676144</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1863871945893926</v>
+        <v>0.1883196466334988</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>114217</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>96787</v>
+        <v>94040</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>132041</v>
+        <v>133951</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3070102315108084</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2601574207889531</v>
+        <v>0.2527736108266228</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3549185295313383</v>
+        <v>0.360054215863953</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>142</v>
@@ -6239,19 +6239,19 @@
         <v>147578</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>129048</v>
+        <v>129438</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>167654</v>
+        <v>168685</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3814407782242834</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3335484683805801</v>
+        <v>0.3345556664077556</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4333308577521439</v>
+        <v>0.4359961579973692</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>244</v>
@@ -6260,19 +6260,19 @@
         <v>261795</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>236472</v>
+        <v>237682</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>292824</v>
+        <v>292911</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3449543722261509</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3115876589754076</v>
+        <v>0.313182294298906</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3858398769746558</v>
+        <v>0.3859549027652326</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>94427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>77885</v>
+        <v>77508</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>111766</v>
+        <v>112168</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2538138471895972</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2093502751955361</v>
+        <v>0.2083377776366027</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3004206655934321</v>
+        <v>0.3015024346342822</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>99</v>
@@ -6310,19 +6310,19 @@
         <v>101923</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>84918</v>
+        <v>86503</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>118927</v>
+        <v>120827</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2634390955106842</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2194855801588227</v>
+        <v>0.2235819171842007</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3073888952505356</v>
+        <v>0.3122986500323694</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>187</v>
@@ -6331,19 +6331,19 @@
         <v>196350</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>171740</v>
+        <v>169009</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>222450</v>
+        <v>220444</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2587207273999682</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2262935599701248</v>
+        <v>0.2226950839740217</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2931114927109947</v>
+        <v>0.2904688192169025</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>88489</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72707</v>
+        <v>72937</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>107166</v>
+        <v>106879</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2378528036016012</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1954338517190562</v>
+        <v>0.1960511730110031</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2880553605430343</v>
+        <v>0.2872851281200685</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -6381,19 +6381,19 @@
         <v>47866</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35485</v>
+        <v>35043</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63324</v>
+        <v>61484</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1237180790478338</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09171692171637617</v>
+        <v>0.09057575451801853</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1636711340190395</v>
+        <v>0.1589162715353657</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>126</v>
@@ -6402,19 +6402,19 @@
         <v>136355</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>114624</v>
+        <v>114239</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159356</v>
+        <v>159232</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.179667767481331</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1510348283184335</v>
+        <v>0.1505267838588451</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2099752491104402</v>
+        <v>0.2098128772100756</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>31618</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21968</v>
+        <v>21781</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44653</v>
+        <v>44009</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08498783668215383</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05904911797284332</v>
+        <v>0.05854510145492604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.120024571249625</v>
+        <v>0.1182939599150255</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -6452,19 +6452,19 @@
         <v>13451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7729</v>
+        <v>7603</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21978</v>
+        <v>21842</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03476726172835301</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01997628527934187</v>
+        <v>0.01965254866771843</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05680629761266919</v>
+        <v>0.05645370272842767</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>45</v>
@@ -6473,19 +6473,19 @@
         <v>45069</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>33213</v>
+        <v>32416</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58534</v>
+        <v>59201</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05938576002150459</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04376372637904956</v>
+        <v>0.04271319683034383</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07712801000600375</v>
+        <v>0.07800630417595594</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>27224</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18375</v>
+        <v>17970</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38359</v>
+        <v>38134</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1280425052931506</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08642386142578511</v>
+        <v>0.08451638449154321</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.180415007239996</v>
+        <v>0.1793563331035049</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>26</v>
@@ -6598,19 +6598,19 @@
         <v>27458</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18030</v>
+        <v>18903</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39096</v>
+        <v>38791</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1267885450951108</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08325570731470977</v>
+        <v>0.0872829628459532</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1805260796796089</v>
+        <v>0.1791181032902318</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>52</v>
@@ -6619,19 +6619,19 @@
         <v>54682</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>41684</v>
+        <v>41768</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>71004</v>
+        <v>70122</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1274097572044369</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09712407470391272</v>
+        <v>0.09732026781041668</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1654384630657644</v>
+        <v>0.1633844314455823</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>44004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33318</v>
+        <v>33375</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>58877</v>
+        <v>56997</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2069608837193146</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1567035115625241</v>
+        <v>0.1569702993775358</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2769140547341418</v>
+        <v>0.26807012830035</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>63</v>
@@ -6669,19 +6669,19 @@
         <v>63151</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50545</v>
+        <v>51318</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>76708</v>
+        <v>76434</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2916038202065078</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2333925245542097</v>
+        <v>0.2369616811347512</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3542006171543277</v>
+        <v>0.3529368806954659</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>104</v>
@@ -6690,19 +6690,19 @@
         <v>107155</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>90291</v>
+        <v>89188</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>126308</v>
+        <v>125936</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2496716941334843</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2103772729628133</v>
+        <v>0.2078071578648372</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2942987801120637</v>
+        <v>0.2934312548922173</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>61533</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48568</v>
+        <v>48574</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>76297</v>
+        <v>77254</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2894076365363266</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.228427203504442</v>
+        <v>0.2284574610113117</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3588437750701974</v>
+        <v>0.363347989842835</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>76</v>
@@ -6740,19 +6740,19 @@
         <v>80272</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>67233</v>
+        <v>65915</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>94324</v>
+        <v>94109</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3706563015152413</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.310450201716592</v>
+        <v>0.3043654588991521</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4355436344703676</v>
+        <v>0.434551053096933</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>133</v>
@@ -6761,19 +6761,19 @@
         <v>141805</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>121834</v>
+        <v>123531</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>161812</v>
+        <v>163269</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3304056981624597</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2838746494746239</v>
+        <v>0.2878278279805828</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3770221607903154</v>
+        <v>0.3804165717528175</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>70561</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>57457</v>
+        <v>56490</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>85709</v>
+        <v>85684</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3318654592152912</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2702374165596084</v>
+        <v>0.2656868581218587</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4031127007679423</v>
+        <v>0.4029964482909155</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>38</v>
@@ -6811,19 +6811,19 @@
         <v>38388</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29090</v>
+        <v>28595</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>50808</v>
+        <v>51108</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1772594909399081</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1343248101919641</v>
+        <v>0.1320384678616767</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2346064953080723</v>
+        <v>0.2359939974904684</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>101</v>
@@ -6832,19 +6832,19 @@
         <v>108949</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>90534</v>
+        <v>92273</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>127421</v>
+        <v>128736</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2538513156380758</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2109455298952838</v>
+        <v>0.2149972955424605</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2968912239619795</v>
+        <v>0.2999564038805941</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>9296</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4171</v>
+        <v>4242</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17334</v>
+        <v>16432</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04372351523591694</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01961593208907833</v>
+        <v>0.01994953225042156</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08152487850844059</v>
+        <v>0.07728283325983606</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -6882,19 +6882,19 @@
         <v>7297</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2966</v>
+        <v>2946</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>15475</v>
+        <v>14382</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0336918422432319</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01369445174800155</v>
+        <v>0.0136022565989278</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07145593392670087</v>
+        <v>0.06640885337278127</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>16</v>
@@ -6903,19 +6903,19 @@
         <v>16593</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9613</v>
+        <v>10015</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>25527</v>
+        <v>26748</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03866153486154341</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02239848182569549</v>
+        <v>0.02333549136287361</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05947704122348244</v>
+        <v>0.06232279925590131</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>5043</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1979</v>
+        <v>1922</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10834</v>
+        <v>11019</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01840639284034545</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007223997570233916</v>
+        <v>0.007014581532577929</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03954271182590192</v>
+        <v>0.04021665437664454</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -7028,19 +7028,19 @@
         <v>15050</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8914</v>
+        <v>8396</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25538</v>
+        <v>25086</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05415029888769417</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03207128083383985</v>
+        <v>0.03020746442992632</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09188563730410644</v>
+        <v>0.0902593875838593</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>19</v>
@@ -7049,19 +7049,19 @@
         <v>20093</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12228</v>
+        <v>12125</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>29630</v>
+        <v>30883</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03640614321149099</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02215568986012909</v>
+        <v>0.02196895283161773</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05368599248276554</v>
+        <v>0.05595603549312005</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>73256</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>58982</v>
+        <v>59498</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>89794</v>
+        <v>89696</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2673754067959086</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2152786759740162</v>
+        <v>0.217159844750158</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3277385772766296</v>
+        <v>0.3273791441248848</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>91</v>
@@ -7099,19 +7099,19 @@
         <v>93774</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>77834</v>
+        <v>78739</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>110081</v>
+        <v>109535</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3374022121655778</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2800500675143652</v>
+        <v>0.2833063016474529</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3960790945164841</v>
+        <v>0.394112886846624</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>161</v>
@@ -7120,19 +7120,19 @@
         <v>167029</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>146034</v>
+        <v>147297</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>189850</v>
+        <v>189986</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3026391805500457</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2645980103335515</v>
+        <v>0.2668868009273662</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3439877753304842</v>
+        <v>0.3442344410538972</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>103451</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>88659</v>
+        <v>88745</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>121290</v>
+        <v>122205</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3775851969524206</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3235961802985501</v>
+        <v>0.3239089069568513</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4426950886999546</v>
+        <v>0.4460340394066011</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>108</v>
@@ -7170,19 +7170,19 @@
         <v>114327</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>97718</v>
+        <v>98318</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>131053</v>
+        <v>131194</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4113564296411278</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3515931728180576</v>
+        <v>0.3537517568661239</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4715345780352755</v>
+        <v>0.4720419804779603</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>206</v>
@@ -7191,19 +7191,19 @@
         <v>217779</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>196125</v>
+        <v>193130</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>243118</v>
+        <v>240093</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3945915576259679</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3553582796384281</v>
+        <v>0.3499305881509609</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.440503301698935</v>
+        <v>0.4350221265860201</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>60547</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>47889</v>
+        <v>48156</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>75536</v>
+        <v>77847</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2209888287351299</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1747884831239494</v>
+        <v>0.1757629086686222</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.275698103482255</v>
+        <v>0.2841343643516204</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>41</v>
@@ -7241,19 +7241,19 @@
         <v>41876</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>31261</v>
+        <v>30636</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>54942</v>
+        <v>54712</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1506712673552614</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1124785592229425</v>
+        <v>0.1102313925040305</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1976852617253061</v>
+        <v>0.1968564892570149</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>99</v>
@@ -7262,19 +7262,19 @@
         <v>102423</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>84599</v>
+        <v>85858</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>122900</v>
+        <v>121749</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1855786374183581</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1532846694578803</v>
+        <v>0.1555660265881262</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2226819614486558</v>
+        <v>0.220595460694265</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>31684</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>22484</v>
+        <v>22090</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>44731</v>
+        <v>44703</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1156441746761954</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08206318641195141</v>
+        <v>0.08062547519902936</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1632626450675042</v>
+        <v>0.1631606475856457</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>13</v>
@@ -7312,19 +7312,19 @@
         <v>12901</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>7081</v>
+        <v>7043</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>21615</v>
+        <v>20768</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.04641979195033887</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02547609435929311</v>
+        <v>0.02534102778809903</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0777714294595101</v>
+        <v>0.07472495383005325</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>43</v>
@@ -7333,19 +7333,19 @@
         <v>44586</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>32697</v>
+        <v>33933</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>60004</v>
+        <v>59116</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08078448119413739</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05924269667943372</v>
+        <v>0.06148258604552066</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1087207672819649</v>
+        <v>0.1071121869516464</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>41170</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>29848</v>
+        <v>30617</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>57792</v>
+        <v>55814</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06268099686547551</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04544342396415359</v>
+        <v>0.04661353695575921</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08798729880611021</v>
+        <v>0.08497596953855896</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>57</v>
@@ -7458,19 +7458,19 @@
         <v>63296</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>47555</v>
+        <v>48930</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>80057</v>
+        <v>81517</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09229893467185028</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06934537941860423</v>
+        <v>0.07135096176914579</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1167401677109665</v>
+        <v>0.1188690576733756</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>94</v>
@@ -7479,19 +7479,19 @@
         <v>104466</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>84725</v>
+        <v>84792</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>124924</v>
+        <v>126975</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07780922672285938</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06310556082818312</v>
+        <v>0.06315540419421144</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09304659770921837</v>
+        <v>0.09457480847539429</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>172788</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>149248</v>
+        <v>148589</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>197278</v>
+        <v>197905</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2630668255764891</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2272270155583489</v>
+        <v>0.2262245273358617</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3003523112289683</v>
+        <v>0.3013061115204604</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>211</v>
@@ -7529,19 +7529,19 @@
         <v>230615</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>205162</v>
+        <v>204955</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>256385</v>
+        <v>258001</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3362866978827707</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2991707996501697</v>
+        <v>0.2988694948396668</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.373865114133183</v>
+        <v>0.3762223494611858</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>358</v>
@@ -7550,19 +7550,19 @@
         <v>403403</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>366839</v>
+        <v>369659</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>439876</v>
+        <v>437642</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3004660214833463</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2732322058361971</v>
+        <v>0.2753323043329378</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3276323239560054</v>
+        <v>0.3259682178454842</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>214316</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>188751</v>
+        <v>191166</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>239137</v>
+        <v>241443</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3262915193013398</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2873694817185993</v>
+        <v>0.2910467717903899</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3640811586402396</v>
+        <v>0.3675922247288143</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>244</v>
@@ -7600,19 +7600,19 @@
         <v>266773</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>240869</v>
+        <v>237038</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>295044</v>
+        <v>292887</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3890139705924047</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3512393450679223</v>
+        <v>0.34565304870647</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4302388524798758</v>
+        <v>0.4270935854050142</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>448</v>
@@ -7621,19 +7621,19 @@
         <v>481089</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>445990</v>
+        <v>443333</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>516929</v>
+        <v>517716</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3583288497378148</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3321864140821866</v>
+        <v>0.3302067735081688</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3850236353999243</v>
+        <v>0.3856094992316983</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>143811</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>123820</v>
+        <v>123906</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>166399</v>
+        <v>165051</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2189494463951228</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1885129888871816</v>
+        <v>0.18864436997951</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2533388406410348</v>
+        <v>0.2512870784705237</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>70</v>
@@ -7671,19 +7671,19 @@
         <v>73838</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>58414</v>
+        <v>59225</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>91517</v>
+        <v>92029</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.107672572804165</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08518110367413888</v>
+        <v>0.08636332456126584</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.133451893955256</v>
+        <v>0.1341987846121404</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>211</v>
@@ -7692,19 +7692,19 @@
         <v>217649</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>192038</v>
+        <v>189499</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>246840</v>
+        <v>245611</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1621115216043992</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1430355767042197</v>
+        <v>0.141144600777157</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1838531833746018</v>
+        <v>0.1829381087936927</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>84738</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>69751</v>
+        <v>67781</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>105659</v>
+        <v>105037</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1290112118615729</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1061949909270548</v>
+        <v>0.1031948006251515</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1608631896477035</v>
+        <v>0.1599172011671304</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>48</v>
@@ -7742,19 +7742,19 @@
         <v>51246</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>38658</v>
+        <v>38820</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>65625</v>
+        <v>67718</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.07472782404880932</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.05637233244120463</v>
+        <v>0.05660801701949844</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09569522385274611</v>
+        <v>0.09874834712026526</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>131</v>
@@ -7763,19 +7763,19 @@
         <v>135983</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>113520</v>
+        <v>114937</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>161613</v>
+        <v>159081</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1012843804515803</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.08455281049667795</v>
+        <v>0.08560838569375519</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1203736138613029</v>
+        <v>0.1184878724730996</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>23578</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>15018</v>
+        <v>15521</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>33778</v>
+        <v>35386</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03042603243005969</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01938001566142816</v>
+        <v>0.02002935250422049</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04358904503028788</v>
+        <v>0.04566381997950639</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>42</v>
@@ -7888,19 +7888,19 @@
         <v>46565</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>34336</v>
+        <v>34663</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>62355</v>
+        <v>62248</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0565942693875477</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0417314932504162</v>
+        <v>0.04212807267746275</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0757849717300836</v>
+        <v>0.07565410546609655</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>64</v>
@@ -7909,19 +7909,19 @@
         <v>70143</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>54162</v>
+        <v>54607</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>88650</v>
+        <v>87987</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.04390217636556751</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03389970835762103</v>
+        <v>0.03417811154422489</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05548570611786006</v>
+        <v>0.05507081271737982</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>85961</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>69819</v>
+        <v>68209</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>107527</v>
+        <v>105070</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1109289382961614</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.09009778430168885</v>
+        <v>0.08802020483341785</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1387586394223426</v>
+        <v>0.1355884796703001</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>131</v>
@@ -7959,19 +7959,19 @@
         <v>142559</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>122458</v>
+        <v>121281</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>166035</v>
+        <v>164423</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1732629296203374</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1488325201651543</v>
+        <v>0.1474020899547302</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2017954671189719</v>
+        <v>0.1998353880019866</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>207</v>
@@ -7980,19 +7980,19 @@
         <v>228520</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>199236</v>
+        <v>201926</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>260395</v>
+        <v>260102</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1430297573358224</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1247011322887796</v>
+        <v>0.1263846442549011</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1629801705058324</v>
+        <v>0.1627968367046764</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>251479</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>222745</v>
+        <v>225122</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>279730</v>
+        <v>279026</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3245231723196602</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2874431562638247</v>
+        <v>0.2905095751911732</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3609794785776106</v>
+        <v>0.3600703401322777</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>219</v>
@@ -8030,19 +8030,19 @@
         <v>244153</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>217703</v>
+        <v>216937</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>272179</v>
+        <v>271600</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2967380838421153</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2645909646897253</v>
+        <v>0.2636598945707647</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3307995507973177</v>
+        <v>0.3300954839701352</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>454</v>
@@ -8051,19 +8051,19 @@
         <v>495633</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>457622</v>
+        <v>455703</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>534576</v>
+        <v>534280</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3102143806271778</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2864230658274864</v>
+        <v>0.2852222024622047</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3345885407768983</v>
+        <v>0.3344029096242429</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>322543</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>292566</v>
+        <v>296163</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>350277</v>
+        <v>354813</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4162270391758595</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.377543607883539</v>
+        <v>0.3821853107195659</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4520175780671543</v>
+        <v>0.4578703246654998</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>281</v>
@@ -8101,19 +8101,19 @@
         <v>301621</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>270117</v>
+        <v>274215</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>330010</v>
+        <v>334019</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3665825920633092</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3282931355677022</v>
+        <v>0.3332746806259325</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4010865770143359</v>
+        <v>0.4059588026335146</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>577</v>
@@ -8122,19 +8122,19 @@
         <v>624164</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>585551</v>
+        <v>582535</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>666548</v>
+        <v>665061</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3906610938668846</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3664931816822072</v>
+        <v>0.3646055696538644</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4171888409430348</v>
+        <v>0.4162581340000645</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>91359</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>73242</v>
+        <v>72667</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>111319</v>
+        <v>110163</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1178948177782592</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.09451620752593169</v>
+        <v>0.09377399472285222</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1436518125654541</v>
+        <v>0.1421600222558277</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>83</v>
@@ -8172,19 +8172,19 @@
         <v>87892</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>70018</v>
+        <v>70839</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>106538</v>
+        <v>110119</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1068221250866904</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.08509771289586403</v>
+        <v>0.08609558603975548</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1294838155794457</v>
+        <v>0.1338362662244724</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>167</v>
@@ -8193,19 +8193,19 @@
         <v>179251</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>154582</v>
+        <v>154460</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>207164</v>
+        <v>204582</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1121925918045476</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.09675233394625242</v>
+        <v>0.09667543474942861</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1296628311261003</v>
+        <v>0.1280465986392997</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>239885</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>207572</v>
+        <v>209028</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>272913</v>
+        <v>271590</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.07038792018756238</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.06090661815830937</v>
+        <v>0.06133388865357928</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.08007926751799306</v>
+        <v>0.07969089095978885</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>363</v>
@@ -8318,19 +8318,19 @@
         <v>398481</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>363989</v>
+        <v>360048</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>440022</v>
+        <v>442543</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1127386090479055</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1029802051885088</v>
+        <v>0.1018650681807416</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.124491430912667</v>
+        <v>0.1252046576601347</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>583</v>
@@ -8339,19 +8339,19 @@
         <v>638365</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>586655</v>
+        <v>589591</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>687247</v>
+        <v>688241</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.09194915088355692</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.08450088411106206</v>
+        <v>0.08492383752456653</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.09898993160892516</v>
+        <v>0.0991331308406458</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>699084</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>653199</v>
+        <v>647953</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>752672</v>
+        <v>756319</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2051281465592037</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1916642072222912</v>
+        <v>0.190124924099927</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2208520126290282</v>
+        <v>0.221922193964293</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>899</v>
@@ -8389,19 +8389,19 @@
         <v>961028</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>903198</v>
+        <v>909145</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1012582</v>
+        <v>1015635</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2718950499706376</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2555337973382025</v>
+        <v>0.257216300631376</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2864808213155945</v>
+        <v>0.2873445496774829</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1534</v>
@@ -8410,19 +8410,19 @@
         <v>1660112</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1587239</v>
+        <v>1586819</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1739965</v>
+        <v>1729251</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2391199574612247</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2286234515493475</v>
+        <v>0.228562880152921</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.250621790382791</v>
+        <v>0.2490786332543379</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>1033464</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>979496</v>
+        <v>981484</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1090434</v>
+        <v>1090651</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3032432543128324</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.287407628933861</v>
+        <v>0.2879910310971768</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3199594471148319</v>
+        <v>0.320023300787962</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1044</v>
@@ -8460,19 +8460,19 @@
         <v>1135323</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1074428</v>
+        <v>1078658</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1190223</v>
+        <v>1190681</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.321206947573637</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3039785202766951</v>
+        <v>0.3051751826689975</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3367392651474167</v>
+        <v>0.3368688685877768</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2025</v>
@@ -8481,19 +8481,19 @@
         <v>2168788</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2079474</v>
+        <v>2091428</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2248795</v>
+        <v>2253006</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3123887805125485</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2995241358654683</v>
+        <v>0.3012460396769375</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3239129897310936</v>
+        <v>0.3245194397396302</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>934809</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>885714</v>
+        <v>883842</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>988357</v>
+        <v>989816</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2742954410230775</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2598896888147709</v>
+        <v>0.2593403719599973</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2900077340290335</v>
+        <v>0.2904358560371894</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>656</v>
@@ -8531,19 +8531,19 @@
         <v>700408</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>655488</v>
+        <v>659226</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>751819</v>
+        <v>753324</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1981603507950545</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1854515368131434</v>
+        <v>0.1865088917930556</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2127053600312109</v>
+        <v>0.2131311592796434</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1535</v>
@@ -8552,19 +8552,19 @@
         <v>1635217</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1562509</v>
+        <v>1558652</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1718713</v>
+        <v>1710155</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2355341767168453</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2250614303996156</v>
+        <v>0.2245058467080543</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.247560751253842</v>
+        <v>0.2463280075466968</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>500795</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>463262</v>
+        <v>457459</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>547514</v>
+        <v>541404</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1469452379173239</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.13593217121671</v>
+        <v>0.1342294949104872</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1606536412899973</v>
+        <v>0.1588609544460601</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>316</v>
@@ -8602,19 +8602,19 @@
         <v>339314</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>306901</v>
+        <v>303543</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>375225</v>
+        <v>375675</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.09599904261276535</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.08682888421767285</v>
+        <v>0.08587866395534384</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.106159121769084</v>
+        <v>0.1062864994867095</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>793</v>
@@ -8623,19 +8623,19 @@
         <v>840109</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>780560</v>
+        <v>787118</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>898540</v>
+        <v>897884</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1210079344258246</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1124307153571702</v>
+        <v>0.1133751794390592</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1294243155026176</v>
+        <v>0.1293297918120755</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>58885</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43947</v>
+        <v>46185</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>74953</v>
+        <v>75219</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2019582284767113</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1507254186863316</v>
+        <v>0.1584001223527922</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2570654271984388</v>
+        <v>0.2579766946239723</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -8992,19 +8992,19 @@
         <v>64903</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51320</v>
+        <v>51051</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80735</v>
+        <v>78679</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2254974093006296</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1783045006757867</v>
+        <v>0.1773697849236285</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2805035420882752</v>
+        <v>0.2733586797173268</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -9013,19 +9013,19 @@
         <v>123789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105612</v>
+        <v>102557</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145249</v>
+        <v>145863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2136516721157069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1822803651801301</v>
+        <v>0.1770078929768132</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.250690656813891</v>
+        <v>0.2517513364690888</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>54475</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40670</v>
+        <v>41895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68797</v>
+        <v>70957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1868304834736352</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1394841261548817</v>
+        <v>0.1436876864130652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2359508589461957</v>
+        <v>0.2433608795498263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -9063,19 +9063,19 @@
         <v>64353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49599</v>
+        <v>51019</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78996</v>
+        <v>78554</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2235861590247882</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1723249544508957</v>
+        <v>0.1772573188527521</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2744610900687216</v>
+        <v>0.2729238079070277</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>111</v>
@@ -9084,19 +9084,19 @@
         <v>118828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>100522</v>
+        <v>101327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>138830</v>
+        <v>141746</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2050894205065625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1734946280841083</v>
+        <v>0.1748833497060986</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2396115610284195</v>
+        <v>0.2446446173083378</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>98041</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>82890</v>
+        <v>80973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116329</v>
+        <v>115219</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3362490329126155</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2842867741084788</v>
+        <v>0.2777117748770258</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3989713304389895</v>
+        <v>0.3951641764316033</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>93</v>
@@ -9134,19 +9134,19 @@
         <v>96052</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>79462</v>
+        <v>81462</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>113374</v>
+        <v>113743</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3337192857780456</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2760786104255872</v>
+        <v>0.283028282642644</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.393902456410142</v>
+        <v>0.3951827396605433</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>182</v>
@@ -9155,19 +9155,19 @@
         <v>194093</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>171680</v>
+        <v>172007</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>219137</v>
+        <v>216310</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3349923428111084</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2963083731926895</v>
+        <v>0.2968729562889991</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3782172567825053</v>
+        <v>0.3733375750490915</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>59628</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46224</v>
+        <v>45655</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73546</v>
+        <v>75113</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.204504041286116</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1585347429893066</v>
+        <v>0.1565812991597323</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2522396121183489</v>
+        <v>0.2576145393151617</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -9205,19 +9205,19 @@
         <v>38237</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27662</v>
+        <v>27324</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50916</v>
+        <v>51591</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1328473489506586</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09610906557845475</v>
+        <v>0.09493431251303976</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1769002799243809</v>
+        <v>0.1792463349448149</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -9226,19 +9226,19 @@
         <v>97864</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79842</v>
+        <v>79223</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117039</v>
+        <v>117536</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1689074969777385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1378019582664821</v>
+        <v>0.1367344013974834</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2020023605138626</v>
+        <v>0.2028603260112813</v>
       </c>
     </row>
     <row r="8">
@@ -9255,19 +9255,19 @@
         <v>20544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12448</v>
+        <v>11874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32814</v>
+        <v>31020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07045821385092194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04269264303945334</v>
+        <v>0.04072545120796852</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1125413971458766</v>
+        <v>0.1063887804085788</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -9276,19 +9276,19 @@
         <v>24278</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15527</v>
+        <v>16722</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34569</v>
+        <v>35503</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08434979694587796</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0539449112076878</v>
+        <v>0.05809681544347087</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1201050910985824</v>
+        <v>0.1233504336313606</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>41</v>
@@ -9297,19 +9297,19 @@
         <v>44821</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33163</v>
+        <v>32470</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60173</v>
+        <v>60093</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0773590675888836</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05723647010743972</v>
+        <v>0.05604084373981465</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1038554323139376</v>
+        <v>0.1037170140189846</v>
       </c>
     </row>
     <row r="9">
@@ -9401,19 +9401,19 @@
         <v>11179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5896</v>
+        <v>6186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19992</v>
+        <v>20302</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02228144033739393</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01175093021861909</v>
+        <v>0.01233016316506151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03984843138888025</v>
+        <v>0.04046463198938183</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -9422,19 +9422,19 @@
         <v>14415</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8114</v>
+        <v>8204</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24169</v>
+        <v>23373</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02766857788801569</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01557465688285143</v>
+        <v>0.01574700986827732</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04638982272126371</v>
+        <v>0.04486206647130092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -9443,19 +9443,19 @@
         <v>25594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16399</v>
+        <v>15999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37742</v>
+        <v>36495</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02502578285774715</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01603543556020649</v>
+        <v>0.01564389459079328</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03690397733881225</v>
+        <v>0.03568496788943989</v>
       </c>
     </row>
     <row r="11">
@@ -9472,19 +9472,19 @@
         <v>44608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33615</v>
+        <v>33404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60539</v>
+        <v>59595</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08891144187624846</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06700034583483555</v>
+        <v>0.06657963817324583</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1206646490500316</v>
+        <v>0.118784118856798</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -9493,19 +9493,19 @@
         <v>79476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63425</v>
+        <v>63496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>98518</v>
+        <v>97366</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1525476098303965</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1217398329992471</v>
+        <v>0.1218760146886061</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1890976658063962</v>
+        <v>0.1868871309368751</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>113</v>
@@ -9514,19 +9514,19 @@
         <v>124083</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>104471</v>
+        <v>104591</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>145722</v>
+        <v>148468</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.121329296424765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1021522777712321</v>
+        <v>0.1022693348998768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.14248754419151</v>
+        <v>0.1451730448625838</v>
       </c>
     </row>
     <row r="12">
@@ -9543,19 +9543,19 @@
         <v>172519</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>149627</v>
+        <v>152367</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>193673</v>
+        <v>194964</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3438605947607599</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2982337789845469</v>
+        <v>0.3036943480858215</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3860244677606821</v>
+        <v>0.3885979695679269</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>169</v>
@@ -9564,19 +9564,19 @@
         <v>183594</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>161241</v>
+        <v>162678</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>205849</v>
+        <v>206357</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3523955854622167</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3094909509945689</v>
+        <v>0.3122482979623937</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3951127673842287</v>
+        <v>0.3960877439110877</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>330</v>
@@ -9585,19 +9585,19 @@
         <v>356113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>325795</v>
+        <v>324959</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>389280</v>
+        <v>388840</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3482085323570672</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3185639954636012</v>
+        <v>0.3177460992272318</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3806397633142738</v>
+        <v>0.380210104822527</v>
       </c>
     </row>
     <row r="13">
@@ -9614,19 +9614,19 @@
         <v>173935</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154288</v>
+        <v>153890</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194796</v>
+        <v>197895</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3466836656090585</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3075235046784461</v>
+        <v>0.3067297508217378</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3882633894367966</v>
+        <v>0.3944403556061128</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -9635,19 +9635,19 @@
         <v>176684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>155476</v>
+        <v>152416</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>197523</v>
+        <v>197550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3391312583866968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2984242379338402</v>
+        <v>0.2925506852975303</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3791314535249279</v>
+        <v>0.3791824097338867</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>332</v>
@@ -9656,19 +9656,19 @@
         <v>350618</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>321769</v>
+        <v>320028</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>383766</v>
+        <v>384095</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3428362805967791</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3146271975449814</v>
+        <v>0.3129251621577874</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3752478341980241</v>
+        <v>0.3755699305309821</v>
       </c>
     </row>
     <row r="14">
@@ -9685,19 +9685,19 @@
         <v>99471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83049</v>
+        <v>81134</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>120922</v>
+        <v>117923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1982628574165392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1655314480330078</v>
+        <v>0.1617145548252398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2410184634093784</v>
+        <v>0.2350407752764138</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -9706,19 +9706,19 @@
         <v>66820</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52611</v>
+        <v>53009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82754</v>
+        <v>85113</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1282569684326743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1009836166516574</v>
+        <v>0.1017460361516917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1588410796728207</v>
+        <v>0.1633683137290603</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>158</v>
@@ -9727,19 +9727,19 @@
         <v>166291</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>143065</v>
+        <v>145343</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>190742</v>
+        <v>192319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1626001077636416</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.139889957451854</v>
+        <v>0.1421172597787012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1865079754618293</v>
+        <v>0.1880506928531351</v>
       </c>
     </row>
     <row r="15">
@@ -9831,19 +9831,19 @@
         <v>5008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2012</v>
+        <v>1888</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10742</v>
+        <v>11495</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01576696582674304</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006334702466616337</v>
+        <v>0.005943904989133855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03381761529734275</v>
+        <v>0.03618866540379952</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -9852,19 +9852,19 @@
         <v>15667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8501</v>
+        <v>9274</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24426</v>
+        <v>24925</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04658442985979384</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02527716861822491</v>
+        <v>0.02757597609545573</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07262839552168884</v>
+        <v>0.07411290248835824</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -9873,19 +9873,19 @@
         <v>20675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12474</v>
+        <v>12507</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32701</v>
+        <v>31995</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03161552119566465</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01907461733520458</v>
+        <v>0.01912549997729179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05000483687328047</v>
+        <v>0.04892618244082439</v>
       </c>
     </row>
     <row r="17">
@@ -9902,19 +9902,19 @@
         <v>30824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21744</v>
+        <v>21977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42556</v>
+        <v>42476</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09703915817275238</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06845295605739743</v>
+        <v>0.06918691249135554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1339746325598177</v>
+        <v>0.1337234558474834</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -9923,19 +9923,19 @@
         <v>62527</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49645</v>
+        <v>49592</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77959</v>
+        <v>78006</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.185921272632178</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1476169902600228</v>
+        <v>0.1474602428601633</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2318074267567812</v>
+        <v>0.2319477153801344</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -9944,19 +9944,19 @@
         <v>93351</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>76020</v>
+        <v>77980</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>112517</v>
+        <v>113151</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1427487308620008</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1162463744509536</v>
+        <v>0.1192437893495811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1720571177392307</v>
+        <v>0.1730260231704135</v>
       </c>
     </row>
     <row r="18">
@@ -9973,19 +9973,19 @@
         <v>93684</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>79295</v>
+        <v>78219</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>108522</v>
+        <v>108598</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.294934683592491</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2496349253635387</v>
+        <v>0.2462478647944276</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3416481795184533</v>
+        <v>0.3418880958766716</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>105</v>
@@ -9994,19 +9994,19 @@
         <v>105514</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>87537</v>
+        <v>89862</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>120504</v>
+        <v>123309</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3137401664500497</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2602886088536115</v>
+        <v>0.2671992552785224</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3583123254267639</v>
+        <v>0.3666551672309714</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>204</v>
@@ -10015,19 +10015,19 @@
         <v>199198</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>177250</v>
+        <v>176765</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>223872</v>
+        <v>222698</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3046058147403261</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2710447067933147</v>
+        <v>0.2703023795303463</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3423363598235266</v>
+        <v>0.340541182047013</v>
       </c>
     </row>
     <row r="19">
@@ -10044,19 +10044,19 @@
         <v>143533</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>126889</v>
+        <v>124987</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>161156</v>
+        <v>160199</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4518698780043112</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3994717255162034</v>
+        <v>0.3934829864881875</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5073484730459886</v>
+        <v>0.5043363898635763</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -10065,19 +10065,19 @@
         <v>121390</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>102311</v>
+        <v>103936</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>138133</v>
+        <v>139510</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3609487253310301</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.304216567908547</v>
+        <v>0.3090500392007735</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4107315450862328</v>
+        <v>0.4148265244868455</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>274</v>
@@ -10086,19 +10086,19 @@
         <v>264924</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>241866</v>
+        <v>239504</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>290739</v>
+        <v>290403</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4051116852859462</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.36985286088812</v>
+        <v>0.366240661768552</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4445869838157828</v>
+        <v>0.4440734588117847</v>
       </c>
     </row>
     <row r="20">
@@ -10115,19 +10115,19 @@
         <v>44594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32552</v>
+        <v>33599</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57719</v>
+        <v>57967</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1403893144037024</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.102480717255073</v>
+        <v>0.1057755701590856</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1817105839125209</v>
+        <v>0.1824899928535143</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -10136,19 +10136,19 @@
         <v>31211</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21055</v>
+        <v>21527</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42556</v>
+        <v>44192</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0928054057269484</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06260498730172499</v>
+        <v>0.06400817420893999</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1265377117613382</v>
+        <v>0.1314042263679162</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>77</v>
@@ -10157,19 +10157,19 @@
         <v>75805</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60972</v>
+        <v>60391</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>92945</v>
+        <v>93176</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1159182479160623</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09323658014300926</v>
+        <v>0.09234759158285435</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1421286456366932</v>
+        <v>0.142480889591818</v>
       </c>
     </row>
     <row r="21">
@@ -10261,19 +10261,19 @@
         <v>48507</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35603</v>
+        <v>37165</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63205</v>
+        <v>64333</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1314517938527887</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0964829378098751</v>
+        <v>0.1007174293945349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1712827735745006</v>
+        <v>0.1743420574089942</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -10282,19 +10282,19 @@
         <v>76616</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59736</v>
+        <v>60977</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>94348</v>
+        <v>95275</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.19892656783827</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.155099776740137</v>
+        <v>0.1583226470142072</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2449679418031474</v>
+        <v>0.2473743561417527</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>116</v>
@@ -10303,19 +10303,19 @@
         <v>125122</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104557</v>
+        <v>106414</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147555</v>
+        <v>148799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1659112076596419</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1386412996755698</v>
+        <v>0.1411035546921616</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1956563873552426</v>
+        <v>0.1973059799887145</v>
       </c>
     </row>
     <row r="23">
@@ -10332,19 +10332,19 @@
         <v>88292</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>71381</v>
+        <v>73369</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105424</v>
+        <v>106966</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2392680444363096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1934407914156023</v>
+        <v>0.1988280907132711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2856966917875944</v>
+        <v>0.2898751067886859</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>114</v>
@@ -10353,19 +10353,19 @@
         <v>124008</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>105565</v>
+        <v>106200</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>143348</v>
+        <v>145995</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3219763494355811</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2740905285261291</v>
+        <v>0.2757384556984105</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3721914031682207</v>
+        <v>0.379064236808982</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>200</v>
@@ -10374,19 +10374,19 @@
         <v>212300</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>188575</v>
+        <v>186385</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>238062</v>
+        <v>239091</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2815072330825225</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2500482530563141</v>
+        <v>0.2471454193769093</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3156676653169826</v>
+        <v>0.3170322290556455</v>
       </c>
     </row>
     <row r="24">
@@ -10403,19 +10403,19 @@
         <v>127454</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>110089</v>
+        <v>109108</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>147146</v>
+        <v>147253</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3453962259056625</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2983375933258939</v>
+        <v>0.2956801867676781</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3987607804318776</v>
+        <v>0.3990532618927113</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>109</v>
@@ -10424,19 +10424,19 @@
         <v>116656</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>99355</v>
+        <v>97814</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>138384</v>
+        <v>136021</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3028872447548348</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2579673445299798</v>
+        <v>0.2539668067428605</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3593034422192786</v>
+        <v>0.3531673899488519</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>231</v>
@@ -10445,19 +10445,19 @@
         <v>244109</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>217155</v>
+        <v>218934</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>270007</v>
+        <v>272018</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3236868597905676</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.287945702581582</v>
+        <v>0.2903038427233164</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3580271383924785</v>
+        <v>0.3606932819178119</v>
       </c>
     </row>
     <row r="25">
@@ -10474,19 +10474,19 @@
         <v>72179</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57231</v>
+        <v>57252</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87757</v>
+        <v>88393</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1956022532632117</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1550945367876324</v>
+        <v>0.1551509157265052</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2378204179625953</v>
+        <v>0.2395440589467076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -10495,19 +10495,19 @@
         <v>51085</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39074</v>
+        <v>39508</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65995</v>
+        <v>66596</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1326385992123446</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.101452503705363</v>
+        <v>0.1025791116292685</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1713511143216619</v>
+        <v>0.1729098598377146</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>117</v>
@@ -10516,19 +10516,19 @@
         <v>123264</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>102746</v>
+        <v>103783</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>143499</v>
+        <v>144911</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1634466715313302</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1362404961740196</v>
+        <v>0.1376150352515823</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1902785044506225</v>
+        <v>0.1921512191106336</v>
       </c>
     </row>
     <row r="26">
@@ -10545,19 +10545,19 @@
         <v>32577</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21634</v>
+        <v>22115</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45319</v>
+        <v>46578</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0882816825420274</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05862709879933264</v>
+        <v>0.05993096799061224</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1228120420314493</v>
+        <v>0.1262243530578775</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -10566,19 +10566,19 @@
         <v>16781</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9448</v>
+        <v>9553</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26062</v>
+        <v>26393</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04357123875896948</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02453011294535011</v>
+        <v>0.02480399341076473</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06766867423773311</v>
+        <v>0.06852790184831294</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>46</v>
@@ -10587,19 +10587,19 @@
         <v>49358</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36044</v>
+        <v>36550</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>64883</v>
+        <v>66736</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06544802793593782</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04779342106248921</v>
+        <v>0.04846507363225457</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08603372267987264</v>
+        <v>0.08849111774177484</v>
       </c>
     </row>
     <row r="27">
@@ -10691,19 +10691,19 @@
         <v>9418</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4647</v>
+        <v>4576</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18071</v>
+        <v>17444</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04458850206619396</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02200088942077988</v>
+        <v>0.02166623400533944</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08555679804239115</v>
+        <v>0.08258809938393998</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -10712,19 +10712,19 @@
         <v>9368</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4537</v>
+        <v>4962</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16942</v>
+        <v>17235</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04285917487989185</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02075459967849665</v>
+        <v>0.02270066926497536</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07750500208544478</v>
+        <v>0.0788471700325955</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -10733,19 +10733,19 @@
         <v>18786</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11552</v>
+        <v>12256</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30017</v>
+        <v>30234</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04370901996440992</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02687749826386306</v>
+        <v>0.028514191074758</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06983799916809923</v>
+        <v>0.07034305882564276</v>
       </c>
     </row>
     <row r="29">
@@ -10762,19 +10762,19 @@
         <v>72849</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>59331</v>
+        <v>58221</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>86666</v>
+        <v>87278</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3448948956275866</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2808956597923845</v>
+        <v>0.2756394854518402</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4103073635208837</v>
+        <v>0.4132084032214577</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>53</v>
@@ -10783,19 +10783,19 @@
         <v>51500</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39336</v>
+        <v>41190</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>65303</v>
+        <v>65039</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2356029997734177</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1799551022490266</v>
+        <v>0.1884367150223582</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2987498145632147</v>
+        <v>0.2975410909346469</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>127</v>
@@ -10804,19 +10804,19 @@
         <v>124349</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>107380</v>
+        <v>106646</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>143009</v>
+        <v>143232</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2893124315137107</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.249833433530347</v>
+        <v>0.2481236570378423</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3327282628539002</v>
+        <v>0.3332454951409745</v>
       </c>
     </row>
     <row r="30">
@@ -10833,19 +10833,19 @@
         <v>94632</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>78183</v>
+        <v>79952</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>107895</v>
+        <v>108909</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4480217897678873</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3701470724317523</v>
+        <v>0.3785240831400932</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5108151090125881</v>
+        <v>0.5156182710539712</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>127</v>
@@ -10854,19 +10854,19 @@
         <v>123955</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>109727</v>
+        <v>110118</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>138605</v>
+        <v>137121</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5670734533730363</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5019827591327702</v>
+        <v>0.5037721225164081</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6340950852279387</v>
+        <v>0.6273057324547634</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>221</v>
@@ -10875,19 +10875,19 @@
         <v>218586</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>197821</v>
+        <v>195767</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>239661</v>
+        <v>238001</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.508567768665169</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4602539495565053</v>
+        <v>0.4554764510221462</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5575992641205659</v>
+        <v>0.5537368226610074</v>
       </c>
     </row>
     <row r="31">
@@ -10904,19 +10904,19 @@
         <v>30341</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20984</v>
+        <v>22356</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>40520</v>
+        <v>41976</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1436470954665132</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09934414602478112</v>
+        <v>0.1058395454777721</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1918373122594843</v>
+        <v>0.1987280987925518</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>32</v>
@@ -10925,19 +10925,19 @@
         <v>31909</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22732</v>
+        <v>23233</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>43511</v>
+        <v>44372</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1459782428247116</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.103993389363066</v>
+        <v>0.1062863072699719</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1990579716627826</v>
+        <v>0.2029942421316291</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>63</v>
@@ -10946,19 +10946,19 @@
         <v>62250</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>49668</v>
+        <v>49124</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>78328</v>
+        <v>77725</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1448326446178803</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1155579508303282</v>
+        <v>0.1142918425941739</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.182239166290451</v>
+        <v>0.1808376646429081</v>
       </c>
     </row>
     <row r="32">
@@ -10975,19 +10975,19 @@
         <v>3981</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1082</v>
+        <v>1052</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10495</v>
+        <v>9921</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01884771707181906</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005120232432405714</v>
+        <v>0.004978858592360801</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04968610922133934</v>
+        <v>0.04697201394181071</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5980</v>
+        <v>6243</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008486129148942614</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02735811394559361</v>
+        <v>0.02855939636558254</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6</v>
@@ -11017,19 +11017,19 @@
         <v>5836</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1958</v>
+        <v>1967</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12262</v>
+        <v>12486</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0135781352388301</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004555230271246121</v>
+        <v>0.004575840090170416</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0285283013463049</v>
+        <v>0.02904972210590053</v>
       </c>
     </row>
     <row r="33">
@@ -11121,19 +11121,19 @@
         <v>31282</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21558</v>
+        <v>21337</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>43751</v>
+        <v>43182</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1188882647944654</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08193044244922729</v>
+        <v>0.08109210984520934</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1662743051583688</v>
+        <v>0.1641129944529193</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>47</v>
@@ -11142,19 +11142,19 @@
         <v>51011</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>38331</v>
+        <v>38830</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>64536</v>
+        <v>67581</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1867758820023586</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1403472629213281</v>
+        <v>0.1421728564366182</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2362962779028229</v>
+        <v>0.247443798045267</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>78</v>
@@ -11163,19 +11163,19 @@
         <v>82294</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>65664</v>
+        <v>67525</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>99496</v>
+        <v>101104</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1534645660199638</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.122453684113808</v>
+        <v>0.1259234949203155</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1855439956307983</v>
+        <v>0.188542326778712</v>
       </c>
     </row>
     <row r="35">
@@ -11192,19 +11192,19 @@
         <v>43712</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33043</v>
+        <v>32693</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>56643</v>
+        <v>55876</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1661286681069531</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1255805840367762</v>
+        <v>0.1242481647546784</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2152711196048296</v>
+        <v>0.2123557289666209</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>73</v>
@@ -11213,19 +11213,19 @@
         <v>74043</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>60457</v>
+        <v>59786</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>89960</v>
+        <v>88246</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2711068015918253</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.221362360850709</v>
+        <v>0.2189044532892113</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.329384430316865</v>
+        <v>0.3231104898847319</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>118</v>
@@ -11234,19 +11234,19 @@
         <v>117756</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>98794</v>
+        <v>100146</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>137169</v>
+        <v>139645</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.219595790901204</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1842354001871827</v>
+        <v>0.1867563361087733</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2557984302302135</v>
+        <v>0.260415438662171</v>
       </c>
     </row>
     <row r="36">
@@ -11263,19 +11263,19 @@
         <v>127305</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>112174</v>
+        <v>111516</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>144895</v>
+        <v>143500</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4838217595796901</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4263179117193889</v>
+        <v>0.42381719150715</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5506722158858955</v>
+        <v>0.5453727156836393</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>101</v>
@@ -11284,19 +11284,19 @@
         <v>105664</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>88575</v>
+        <v>90238</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>122665</v>
+        <v>123248</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3868831347495044</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3243127575335791</v>
+        <v>0.3304014487729073</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4491321392602686</v>
+        <v>0.4512679883698989</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>224</v>
@@ -11305,19 +11305,19 @@
         <v>232968</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>210281</v>
+        <v>209155</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>259118</v>
+        <v>255387</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4344492932836662</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3921416258726432</v>
+        <v>0.3900405170685597</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4832138481102091</v>
+        <v>0.4762576419564462</v>
       </c>
     </row>
     <row r="37">
@@ -11334,19 +11334,19 @@
         <v>35609</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25174</v>
+        <v>25344</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>48260</v>
+        <v>48777</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.135333921608543</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09567469184618066</v>
+        <v>0.09632096991609473</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1834122241517346</v>
+        <v>0.1853761710415584</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>25</v>
@@ -11355,19 +11355,19 @@
         <v>26056</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>17011</v>
+        <v>17617</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>37109</v>
+        <v>38113</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09540330123715074</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06228562044012148</v>
+        <v>0.06450510362532996</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1358736508326687</v>
+        <v>0.1395476032607563</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>60</v>
@@ -11376,19 +11376,19 @@
         <v>61666</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>48541</v>
+        <v>46764</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>79284</v>
+        <v>76757</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1149965874249865</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0905220764287696</v>
+        <v>0.08720740597448176</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.147852711160784</v>
+        <v>0.1431400075752853</v>
       </c>
     </row>
     <row r="38">
@@ -11405,19 +11405,19 @@
         <v>25214</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>17105</v>
+        <v>16518</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>36656</v>
+        <v>36196</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09582738591034839</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0650062027548077</v>
+        <v>0.06277644592451921</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1393100804074881</v>
+        <v>0.1375646715043359</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>17</v>
@@ -11426,19 +11426,19 @@
         <v>16341</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>9740</v>
+        <v>9574</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>25840</v>
+        <v>25337</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.05983088041916095</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.03566144445770433</v>
+        <v>0.03505428900074275</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09461143336911994</v>
+        <v>0.09276988696195559</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>42</v>
@@ -11447,19 +11447,19 @@
         <v>41555</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>30599</v>
+        <v>30109</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>55404</v>
+        <v>54603</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07749376237017951</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.05706272607248022</v>
+        <v>0.05614930581636766</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1033200514191547</v>
+        <v>0.1018267899869476</v>
       </c>
     </row>
     <row r="39">
@@ -11551,19 +11551,19 @@
         <v>31830</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>21005</v>
+        <v>21893</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>44867</v>
+        <v>45426</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04872974687788046</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03215685024851661</v>
+        <v>0.03351754632490924</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06868809143378526</v>
+        <v>0.06954415153821546</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>55</v>
@@ -11572,19 +11572,19 @@
         <v>59656</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>45476</v>
+        <v>45568</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>76365</v>
+        <v>76392</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08683318711028962</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06619400436413288</v>
+        <v>0.06632793243187231</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1111539890626677</v>
+        <v>0.1111941093441806</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>82</v>
@@ -11593,19 +11593,19 @@
         <v>91486</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>71874</v>
+        <v>73868</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>112725</v>
+        <v>113107</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06826232782120141</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05362893450297181</v>
+        <v>0.05511671909700957</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08410979219331535</v>
+        <v>0.08439534384077113</v>
       </c>
     </row>
     <row r="41">
@@ -11622,19 +11622,19 @@
         <v>84030</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>67360</v>
+        <v>67952</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>103118</v>
+        <v>105856</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1286450572296981</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1031249477170172</v>
+        <v>0.1040303647995749</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1578678733794415</v>
+        <v>0.162059173300669</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>109</v>
@@ -11643,19 +11643,19 @@
         <v>121367</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>102160</v>
+        <v>101156</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>142138</v>
+        <v>142607</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1766575729364816</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1487005820347881</v>
+        <v>0.1472390609119661</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2068918712855735</v>
+        <v>0.2075741728455958</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>186</v>
@@ -11664,19 +11664,19 @@
         <v>205397</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>179141</v>
+        <v>177062</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>232469</v>
+        <v>235649</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1532572272493899</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1336666805505162</v>
+        <v>0.1321150754081262</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1734567959967905</v>
+        <v>0.1758301878314928</v>
       </c>
     </row>
     <row r="42">
@@ -11693,19 +11693,19 @@
         <v>224196</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>196683</v>
+        <v>197630</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>250146</v>
+        <v>249265</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3432311746954528</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3011107258800298</v>
+        <v>0.3025596706998994</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3829586990269584</v>
+        <v>0.3816111658124096</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>233</v>
@@ -11714,19 +11714,19 @@
         <v>245122</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>217654</v>
+        <v>218657</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>269669</v>
+        <v>269488</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3567917270255935</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3168098129074904</v>
+        <v>0.3182697196594664</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3925212986521958</v>
+        <v>0.392257371121139</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>428</v>
@@ -11735,19 +11735,19 @@
         <v>469318</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>434457</v>
+        <v>433826</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>509861</v>
+        <v>504778</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3501825833978965</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3241705029430726</v>
+        <v>0.3236999440660688</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3804333391270517</v>
+        <v>0.3766410774416082</v>
       </c>
     </row>
     <row r="43">
@@ -11764,19 +11764,19 @@
         <v>203121</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>178551</v>
+        <v>178698</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>229805</v>
+        <v>229268</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3109661051087672</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2733515462043616</v>
+        <v>0.2735768249685466</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3518188534732937</v>
+        <v>0.3509956489738569</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>170</v>
@@ -11785,19 +11785,19 @@
         <v>184184</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>159580</v>
+        <v>161587</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>208259</v>
+        <v>208258</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2680921220116673</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2322786751215295</v>
+        <v>0.2352010313375995</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3031346945872657</v>
+        <v>0.3031326797124421</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>348</v>
@@ -11806,19 +11806,19 @@
         <v>387305</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>353595</v>
+        <v>354300</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>424841</v>
+        <v>422159</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2889880490566423</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2638358870881131</v>
+        <v>0.2643612595502245</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.316996104529989</v>
+        <v>0.3149949612257195</v>
       </c>
     </row>
     <row r="44">
@@ -11835,19 +11835,19 @@
         <v>110016</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>90029</v>
+        <v>92152</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>129890</v>
+        <v>134437</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1684279160882015</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.137829226065605</v>
+        <v>0.1410802064411186</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1988540828320584</v>
+        <v>0.2058158492084953</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>75</v>
@@ -11856,19 +11856,19 @@
         <v>76689</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>62590</v>
+        <v>61215</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>94789</v>
+        <v>94305</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1116253909159679</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09110364244535464</v>
+        <v>0.08910244416598144</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1379722593396189</v>
+        <v>0.1372677446204415</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>175</v>
@@ -11877,19 +11877,19 @@
         <v>186704</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>161999</v>
+        <v>163526</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>211217</v>
+        <v>214811</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1393098124748699</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1208758497209605</v>
+        <v>0.1220152612002835</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1575995850074572</v>
+        <v>0.1602814020267366</v>
       </c>
     </row>
     <row r="45">
@@ -11981,19 +11981,19 @@
         <v>20999</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>12688</v>
+        <v>12739</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>31903</v>
+        <v>32282</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02707780513732861</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01636057178601973</v>
+        <v>0.01642707951789638</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04113702594287755</v>
+        <v>0.04162656582267907</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>29</v>
@@ -12002,19 +12002,19 @@
         <v>32468</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>22717</v>
+        <v>22085</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>46702</v>
+        <v>46014</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03935435176436328</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02753499669651171</v>
+        <v>0.02676984532539228</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.05660748231677189</v>
+        <v>0.05577390279552074</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>48</v>
@@ -12023,19 +12023,19 @@
         <v>53467</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>40158</v>
+        <v>39498</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>70275</v>
+        <v>68789</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03340588109558933</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02509032973677217</v>
+        <v>0.02467833482160648</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04390756213442808</v>
+        <v>0.04297900799542174</v>
       </c>
     </row>
     <row r="47">
@@ -12052,19 +12052,19 @@
         <v>134287</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>115567</v>
+        <v>115585</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>156031</v>
+        <v>158175</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1731576947064057</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1490197244142276</v>
+        <v>0.1490423141006784</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2011958167615429</v>
+        <v>0.2039608080473722</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>198</v>
@@ -12073,19 +12073,19 @@
         <v>216205</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>188859</v>
+        <v>189627</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>242381</v>
+        <v>242876</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2620641962731255</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2289175969049199</v>
+        <v>0.2298484530350765</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2937925789693945</v>
+        <v>0.2943928935404608</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>327</v>
@@ -12094,19 +12094,19 @@
         <v>350492</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>318313</v>
+        <v>315790</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>386401</v>
+        <v>384474</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2189854923916675</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1988803705147286</v>
+        <v>0.1973039004532313</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2414214534098345</v>
+        <v>0.2402171874329827</v>
       </c>
     </row>
     <row r="48">
@@ -12123,19 +12123,19 @@
         <v>368584</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>341836</v>
+        <v>338612</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>396554</v>
+        <v>398038</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.4752743710307477</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.4407837768180954</v>
+        <v>0.4366265294109862</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.5113406042335183</v>
+        <v>0.5132547749814088</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>330</v>
@@ -12144,19 +12144,19 @@
         <v>360108</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>331963</v>
+        <v>329090</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>389601</v>
+        <v>390316</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4364903922012465</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.4023749025690103</v>
+        <v>0.3988926903631145</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4722387127831451</v>
+        <v>0.4731052772077939</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>688</v>
@@ -12165,19 +12165,19 @@
         <v>728692</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>688024</v>
+        <v>686026</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>768758</v>
+        <v>771658</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.455282758450041</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.4298734943429829</v>
+        <v>0.4286254150442407</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4803159953935478</v>
+        <v>0.4821276750518048</v>
       </c>
     </row>
     <row r="49">
@@ -12194,19 +12194,19 @@
         <v>207843</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>183862</v>
+        <v>183237</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>231724</v>
+        <v>234634</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2680048987215326</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2370833650970034</v>
+        <v>0.2362767439399119</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2987995126243498</v>
+        <v>0.3025515980287344</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>170</v>
@@ -12215,19 +12215,19 @@
         <v>188474</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>165222</v>
+        <v>163709</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>216450</v>
+        <v>215819</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2284512878112682</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2002672506470935</v>
+        <v>0.1984335233928469</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2623611350865614</v>
+        <v>0.2615960014252134</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>371</v>
@@ -12236,19 +12236,19 @@
         <v>396317</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>363940</v>
+        <v>360936</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>433734</v>
+        <v>432931</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2476165711349741</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2273875441616045</v>
+        <v>0.2255108235782901</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2709947210107233</v>
+        <v>0.2704931620782662</v>
       </c>
     </row>
     <row r="50">
@@ -12265,19 +12265,19 @@
         <v>43805</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>31986</v>
+        <v>31662</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>60817</v>
+        <v>60731</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.05648523040398552</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04124495879281972</v>
+        <v>0.04082714224894456</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.07842089827479425</v>
+        <v>0.07831064589199159</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>27</v>
@@ -12286,19 +12286,19 @@
         <v>27753</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>18659</v>
+        <v>18405</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>39977</v>
+        <v>38612</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.03363977194999638</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02261729948472788</v>
+        <v>0.02230894036282174</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04845625421137327</v>
+        <v>0.04680237005934133</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>67</v>
@@ -12307,19 +12307,19 @@
         <v>71558</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>56345</v>
+        <v>56531</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>90067</v>
+        <v>92324</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.04470929692772811</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0352040094765651</v>
+        <v>0.03532057026160166</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.05627313029134486</v>
+        <v>0.05768356350857796</v>
       </c>
     </row>
     <row r="51">
@@ -12411,19 +12411,19 @@
         <v>217108</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>189695</v>
+        <v>189405</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>249784</v>
+        <v>246776</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.06417657725149097</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0560733501681472</v>
+        <v>0.05598745272689741</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.07383542068214105</v>
+        <v>0.07294612343074867</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>298</v>
@@ -12432,19 +12432,19 @@
         <v>324104</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>289584</v>
+        <v>290756</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>359527</v>
+        <v>360886</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.09171047219704917</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.08194227793050518</v>
+        <v>0.08227389238126245</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1017339390781253</v>
+        <v>0.1021183244613529</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>498</v>
@@ -12453,19 +12453,19 @@
         <v>541213</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>495120</v>
+        <v>493336</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>586210</v>
+        <v>586630</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.07824408211092942</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07158032256401362</v>
+        <v>0.07132245543490355</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08474941218722148</v>
+        <v>0.08481013460187042</v>
       </c>
     </row>
     <row r="53">
@@ -12482,19 +12482,19 @@
         <v>553076</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>508281</v>
+        <v>512065</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>593031</v>
+        <v>599206</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1634874556475614</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1502462308747244</v>
+        <v>0.1513648648626965</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1752982485514706</v>
+        <v>0.1771235423006126</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>739</v>
@@ -12503,19 +12503,19 @@
         <v>793479</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>743098</v>
+        <v>743804</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>845306</v>
+        <v>848105</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2245274585901056</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2102713751838783</v>
+        <v>0.2104711410162611</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2391925952978657</v>
+        <v>0.2399846145425105</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1274</v>
@@ -12524,19 +12524,19 @@
         <v>1346555</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1279519</v>
+        <v>1282480</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1411964</v>
+        <v>1416866</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1946737640035792</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.184982242824087</v>
+        <v>0.185410297208376</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2041300759599773</v>
+        <v>0.2048388552075637</v>
       </c>
     </row>
     <row r="54">
@@ -12553,19 +12553,19 @@
         <v>1306412</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1254843</v>
+        <v>1248090</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1361177</v>
+        <v>1365555</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3861714593537147</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3709276014333689</v>
+        <v>0.3689317124006879</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4023598769336169</v>
+        <v>0.4036538512031169</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1267</v>
@@ -12574,19 +12574,19 @@
         <v>1336665</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1273521</v>
+        <v>1275359</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1393640</v>
+        <v>1396273</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3782304774130676</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3603628581321436</v>
+        <v>0.3608830042088639</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.394352435403041</v>
+        <v>0.395097584685147</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2508</v>
@@ -12595,19 +12595,19 @@
         <v>2643077</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2564148</v>
+        <v>2562198</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2728950</v>
+        <v>2724174</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.382114285377434</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3707033690610571</v>
+        <v>0.3704214373090783</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3945291087377386</v>
+        <v>0.3938386087816138</v>
       </c>
     </row>
     <row r="55">
@@ -12624,19 +12624,19 @@
         <v>926188</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>871281</v>
+        <v>874475</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>977910</v>
+        <v>982677</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2737783184890297</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2575481262095114</v>
+        <v>0.2584920833968805</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2890673210389109</v>
+        <v>0.2904764525788239</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>771</v>
@@ -12645,19 +12645,19 @@
         <v>818019</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>768679</v>
+        <v>766943</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>871400</v>
+        <v>865403</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2314714332470252</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.217509822444379</v>
+        <v>0.2170186093930016</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2465764563215731</v>
+        <v>0.244879411008525</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1657</v>
@@ -12666,19 +12666,19 @@
         <v>1744207</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1666645</v>
+        <v>1675057</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1817360</v>
+        <v>1825232</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.252163057919961</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.240949747131418</v>
+        <v>0.2421659728445186</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2627389709151201</v>
+        <v>0.2638770007935243</v>
       </c>
     </row>
     <row r="56">
@@ -12695,19 +12695,19 @@
         <v>380201</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>345667</v>
+        <v>344126</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>416177</v>
+        <v>416127</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1123861892582032</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1021782454022562</v>
+        <v>0.1017225615110083</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1230205366893251</v>
+        <v>0.1230057956748094</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>254</v>
@@ -12716,19 +12716,19 @@
         <v>261728</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>234389</v>
+        <v>229647</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>294676</v>
+        <v>294485</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.0740601585527524</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.06632408078914374</v>
+        <v>0.06498217361324525</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.08338327797881301</v>
+        <v>0.08332931344355266</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>612</v>
@@ -12737,19 +12737,19 @@
         <v>641929</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>593409</v>
+        <v>592234</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>691076</v>
+        <v>691442</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.09280481058809635</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.08579018841640859</v>
+        <v>0.08562032112354</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.09991009318434077</v>
+        <v>0.09996296442153808</v>
       </c>
     </row>
     <row r="57">
